--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2407451.529261136</v>
+        <v>-2410146.878979538</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9491371.480771223</v>
+        <v>9491371.480771227</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673421</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1148,13 +1148,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T9" t="n">
         <v>5.309829763041575</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>3.334980354192922</v>
+      </c>
+      <c r="K10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.334980354192922</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>295.9919197866238</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>46.78749010800647</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>192.4927179756365</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0059843530867</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>247.1211984539353</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>135.0717834270508</v>
       </c>
       <c r="H12" t="n">
-        <v>90.29527894253181</v>
+        <v>90.29527894253184</v>
       </c>
       <c r="I12" t="n">
-        <v>11.1812388652105</v>
+        <v>11.18123886521056</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.68429468015299</v>
+        <v>166.0864341065445</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.2940338131473</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>91.65811123200635</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>190.8255685104301</v>
       </c>
       <c r="T13" t="n">
-        <v>219.8079869882842</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2151450700229</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>274.9284069248516</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9321492551762</v>
       </c>
       <c r="H14" t="n">
         <v>294.714515098463</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.76202499516256</v>
+        <v>109.4252896124317</v>
       </c>
       <c r="T14" t="n">
         <v>203.9635994561612</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9960058470398</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>11.39877740670158</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I15" t="n">
-        <v>10.33959683028451</v>
+        <v>9.850416382685067</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.4891804475996651</v>
       </c>
       <c r="S15" t="n">
         <v>128.247100173363</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>116.6879479691465</v>
+        <v>166.0304839279157</v>
       </c>
       <c r="H16" t="n">
         <v>144.7965858613387</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.49303052510928</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>89.14238774566138</v>
       </c>
       <c r="S16" t="n">
-        <v>189.8505094883267</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.568927134143</v>
+        <v>204.2666376497135</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2120932420976</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.5472249462559</v>
+        <v>335.5472249462558</v>
       </c>
       <c r="C17" t="n">
-        <v>318.0862750537829</v>
+        <v>318.0862750537828</v>
       </c>
       <c r="D17" t="n">
-        <v>307.4964249034583</v>
+        <v>307.4964249034582</v>
       </c>
       <c r="E17" t="n">
-        <v>334.7437533550371</v>
+        <v>334.743753355037</v>
       </c>
       <c r="F17" t="n">
-        <v>359.6894290244868</v>
+        <v>359.6894290244867</v>
       </c>
       <c r="G17" t="n">
-        <v>363.7455325379515</v>
+        <v>363.7455325379514</v>
       </c>
       <c r="H17" t="n">
-        <v>247.5278983812383</v>
+        <v>247.5278983812382</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.23867289520699</v>
+        <v>62.23867289520693</v>
       </c>
       <c r="T17" t="n">
-        <v>156.7769827389366</v>
+        <v>156.7769827389365</v>
       </c>
       <c r="U17" t="n">
-        <v>203.8093891298151</v>
+        <v>203.809389129815</v>
       </c>
       <c r="V17" t="n">
         <v>280.5656417529102</v>
       </c>
       <c r="W17" t="n">
-        <v>302.0543520001884</v>
+        <v>302.0543520001883</v>
       </c>
       <c r="X17" t="n">
-        <v>322.5444839612444</v>
+        <v>322.5444839612443</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.0513219388289</v>
+        <v>339.0513219388288</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I18" t="n">
-        <v>9.850416382685024</v>
+        <v>9.850416382685067</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.6453634647126</v>
+        <v>132.6453634647125</v>
       </c>
       <c r="C19" t="n">
-        <v>120.0602043814032</v>
+        <v>120.0602043814031</v>
       </c>
       <c r="D19" t="n">
-        <v>101.4288563009877</v>
+        <v>101.4288563009876</v>
       </c>
       <c r="E19" t="n">
-        <v>99.2473459293445</v>
+        <v>99.24734592934443</v>
       </c>
       <c r="F19" t="n">
-        <v>98.23443130570658</v>
+        <v>98.23443130570651</v>
       </c>
       <c r="G19" t="n">
-        <v>118.8438672106911</v>
+        <v>118.843867210691</v>
       </c>
       <c r="H19" t="n">
-        <v>97.60996914411402</v>
+        <v>97.6099691441153</v>
       </c>
       <c r="I19" t="n">
-        <v>49.30641380788462</v>
+        <v>49.30641380788455</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95577102843671</v>
+        <v>41.95577102843663</v>
       </c>
       <c r="S19" t="n">
-        <v>142.663892771102</v>
+        <v>142.6638927711019</v>
       </c>
       <c r="T19" t="n">
-        <v>172.3823104169184</v>
+        <v>172.3823104169183</v>
       </c>
       <c r="U19" t="n">
-        <v>239.025476524873</v>
+        <v>239.0254765248729</v>
       </c>
       <c r="V19" t="n">
         <v>204.9510266066033</v>
@@ -2065,10 +2065,10 @@
         <v>239.3363816193663</v>
       </c>
       <c r="X19" t="n">
-        <v>178.5230386718125</v>
+        <v>178.5230386718124</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.3980366348701</v>
+        <v>171.39803663487</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>334.7437533550371</v>
       </c>
       <c r="F20" t="n">
-        <v>359.6894290244868</v>
+        <v>359.6894290244867</v>
       </c>
       <c r="G20" t="n">
         <v>363.7455325379515</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.23867289520699</v>
+        <v>62.23867289520693</v>
       </c>
       <c r="T20" t="n">
-        <v>156.7769827389366</v>
+        <v>156.7769827389365</v>
       </c>
       <c r="U20" t="n">
         <v>203.8093891298151</v>
@@ -2141,10 +2141,10 @@
         <v>280.5656417529102</v>
       </c>
       <c r="W20" t="n">
-        <v>302.0543520001884</v>
+        <v>302.0543520001883</v>
       </c>
       <c r="X20" t="n">
-        <v>322.5444839612444</v>
+        <v>322.5444839612443</v>
       </c>
       <c r="Y20" t="n">
         <v>339.0513219388289</v>
@@ -2178,7 +2178,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I21" t="n">
-        <v>9.850416382685024</v>
+        <v>9.850416382685053</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>132.6453634647126</v>
       </c>
       <c r="C22" t="n">
-        <v>120.0602043814032</v>
+        <v>120.0602043814031</v>
       </c>
       <c r="D22" t="n">
-        <v>101.4288563009877</v>
+        <v>101.4288563009876</v>
       </c>
       <c r="E22" t="n">
-        <v>99.2473459293445</v>
+        <v>99.24734592934446</v>
       </c>
       <c r="F22" t="n">
-        <v>98.23443130570658</v>
+        <v>98.23443130570654</v>
       </c>
       <c r="G22" t="n">
         <v>118.843867210691</v>
       </c>
       <c r="H22" t="n">
-        <v>97.60996914411402</v>
+        <v>97.60996914411398</v>
       </c>
       <c r="I22" t="n">
-        <v>49.30641380788462</v>
+        <v>49.30641380788457</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95577102843671</v>
+        <v>41.95577102843669</v>
       </c>
       <c r="S22" t="n">
         <v>142.663892771102</v>
       </c>
       <c r="T22" t="n">
-        <v>172.3823104169184</v>
+        <v>172.3823104169183</v>
       </c>
       <c r="U22" t="n">
-        <v>239.025476524873</v>
+        <v>239.0254765248729</v>
       </c>
       <c r="V22" t="n">
         <v>204.9510266066033</v>
@@ -2327,7 +2327,7 @@
         <v>334.7437533550371</v>
       </c>
       <c r="F23" t="n">
-        <v>359.6894290244868</v>
+        <v>359.6894290244867</v>
       </c>
       <c r="G23" t="n">
         <v>363.7455325379515</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.23867289520699</v>
+        <v>62.23867289520696</v>
       </c>
       <c r="T23" t="n">
-        <v>156.7769827389366</v>
+        <v>156.7769827389365</v>
       </c>
       <c r="U23" t="n">
         <v>203.8093891298151</v>
@@ -2378,10 +2378,10 @@
         <v>280.5656417529102</v>
       </c>
       <c r="W23" t="n">
-        <v>302.0543520001884</v>
+        <v>302.0543520001883</v>
       </c>
       <c r="X23" t="n">
-        <v>322.5444839612444</v>
+        <v>322.5444839612443</v>
       </c>
       <c r="Y23" t="n">
         <v>339.0513219388289</v>
@@ -2415,7 +2415,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I24" t="n">
-        <v>10.33959683028451</v>
+        <v>9.850416382685053</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.4891804475996651</v>
       </c>
       <c r="S24" t="n">
         <v>128.247100173363</v>
@@ -2476,25 +2476,25 @@
         <v>132.6453634647126</v>
       </c>
       <c r="C25" t="n">
-        <v>120.0602043814032</v>
+        <v>120.0602043814031</v>
       </c>
       <c r="D25" t="n">
         <v>101.4288563009877</v>
       </c>
       <c r="E25" t="n">
-        <v>99.2473459293445</v>
+        <v>99.24734592934448</v>
       </c>
       <c r="F25" t="n">
-        <v>98.23443130570658</v>
+        <v>98.23443130570655</v>
       </c>
       <c r="G25" t="n">
         <v>118.843867210691</v>
       </c>
       <c r="H25" t="n">
-        <v>97.60996914411402</v>
+        <v>97.60996914411399</v>
       </c>
       <c r="I25" t="n">
-        <v>49.30641380788462</v>
+        <v>49.30641380788459</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95577102843671</v>
+        <v>41.95577102843669</v>
       </c>
       <c r="S25" t="n">
         <v>142.663892771102</v>
       </c>
       <c r="T25" t="n">
-        <v>172.3823104169184</v>
+        <v>172.3823104169183</v>
       </c>
       <c r="U25" t="n">
-        <v>239.025476524873</v>
+        <v>239.0254765248729</v>
       </c>
       <c r="V25" t="n">
         <v>204.9510266066033</v>
@@ -2564,7 +2564,7 @@
         <v>334.7437533550371</v>
       </c>
       <c r="F26" t="n">
-        <v>359.6894290244868</v>
+        <v>359.6894290244867</v>
       </c>
       <c r="G26" t="n">
         <v>363.7455325379515</v>
@@ -2615,10 +2615,10 @@
         <v>280.5656417529102</v>
       </c>
       <c r="W26" t="n">
-        <v>302.0543520001884</v>
+        <v>302.0543520001883</v>
       </c>
       <c r="X26" t="n">
-        <v>322.5444839612444</v>
+        <v>322.5444839612443</v>
       </c>
       <c r="Y26" t="n">
         <v>339.0513219388289</v>
@@ -2652,7 +2652,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I27" t="n">
-        <v>10.33959683028451</v>
+        <v>9.85041638268501</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.4891804475996651</v>
       </c>
       <c r="S27" t="n">
         <v>128.247100173363</v>
@@ -2722,7 +2722,7 @@
         <v>99.2473459293445</v>
       </c>
       <c r="F28" t="n">
-        <v>98.23443130570624</v>
+        <v>98.23443130570658</v>
       </c>
       <c r="G28" t="n">
         <v>118.8438672106911</v>
@@ -2801,7 +2801,7 @@
         <v>334.7437533550371</v>
       </c>
       <c r="F29" t="n">
-        <v>359.6894290244868</v>
+        <v>359.6894290244867</v>
       </c>
       <c r="G29" t="n">
         <v>363.7455325379515</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.23867289520699</v>
+        <v>62.23867289520693</v>
       </c>
       <c r="T29" t="n">
-        <v>156.7769827389366</v>
+        <v>156.7769827389365</v>
       </c>
       <c r="U29" t="n">
         <v>203.8093891298151</v>
@@ -2852,10 +2852,10 @@
         <v>280.5656417529102</v>
       </c>
       <c r="W29" t="n">
-        <v>302.0543520001884</v>
+        <v>302.0543520001883</v>
       </c>
       <c r="X29" t="n">
-        <v>322.5444839612444</v>
+        <v>322.5444839612443</v>
       </c>
       <c r="Y29" t="n">
         <v>339.0513219388289</v>
@@ -2889,7 +2889,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I30" t="n">
-        <v>10.33959683028451</v>
+        <v>10.33959683028453</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>132.6453634647126</v>
       </c>
       <c r="C31" t="n">
-        <v>120.0602043814032</v>
+        <v>120.0602043814031</v>
       </c>
       <c r="D31" t="n">
-        <v>101.4288563009877</v>
+        <v>101.4288563009876</v>
       </c>
       <c r="E31" t="n">
-        <v>99.2473459293445</v>
+        <v>99.24734592934445</v>
       </c>
       <c r="F31" t="n">
-        <v>98.23443130570658</v>
+        <v>98.23443130570652</v>
       </c>
       <c r="G31" t="n">
-        <v>118.8438672106911</v>
+        <v>118.843867210691</v>
       </c>
       <c r="H31" t="n">
-        <v>97.60996914411402</v>
+        <v>97.60996914411396</v>
       </c>
       <c r="I31" t="n">
-        <v>49.30641380788462</v>
+        <v>49.30641380788456</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95577102843671</v>
+        <v>41.95577102843666</v>
       </c>
       <c r="S31" t="n">
         <v>142.663892771102</v>
       </c>
       <c r="T31" t="n">
-        <v>172.3823104169184</v>
+        <v>172.3823104169183</v>
       </c>
       <c r="U31" t="n">
-        <v>239.025476524873</v>
+        <v>239.0254765248729</v>
       </c>
       <c r="V31" t="n">
         <v>204.9510266066033</v>
@@ -3013,7 +3013,7 @@
         <v>239.3363816193663</v>
       </c>
       <c r="X31" t="n">
-        <v>178.5230386718125</v>
+        <v>178.5230386718124</v>
       </c>
       <c r="Y31" t="n">
         <v>171.3980366348701</v>
@@ -3038,7 +3038,7 @@
         <v>334.7437533550371</v>
       </c>
       <c r="F32" t="n">
-        <v>359.6894290244867</v>
+        <v>359.6894290244868</v>
       </c>
       <c r="G32" t="n">
         <v>363.7455325379515</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.23867289520695</v>
+        <v>62.23867289520702</v>
       </c>
       <c r="T32" t="n">
-        <v>156.7769827389365</v>
+        <v>156.7769827389366</v>
       </c>
       <c r="U32" t="n">
         <v>203.8093891298151</v>
       </c>
       <c r="V32" t="n">
-        <v>280.5656417529102</v>
+        <v>280.5656417529103</v>
       </c>
       <c r="W32" t="n">
-        <v>302.0543520001883</v>
+        <v>302.0543520001884</v>
       </c>
       <c r="X32" t="n">
-        <v>322.5444839612443</v>
+        <v>322.5444839612444</v>
       </c>
       <c r="Y32" t="n">
         <v>339.0513219388289</v>
@@ -3126,7 +3126,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I33" t="n">
-        <v>10.33959683028453</v>
+        <v>9.850416382685024</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.4891804475996651</v>
       </c>
       <c r="S33" t="n">
         <v>128.247100173363</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.6453634647126</v>
+        <v>132.6453634647127</v>
       </c>
       <c r="C34" t="n">
-        <v>120.0602043814031</v>
+        <v>120.0602043814032</v>
       </c>
       <c r="D34" t="n">
-        <v>101.4288563009876</v>
+        <v>101.4288563009877</v>
       </c>
       <c r="E34" t="n">
-        <v>99.24734592934446</v>
+        <v>99.24734592934453</v>
       </c>
       <c r="F34" t="n">
-        <v>98.23443130570654</v>
+        <v>98.23443130570661</v>
       </c>
       <c r="G34" t="n">
-        <v>118.843867210691</v>
+        <v>118.8438672106911</v>
       </c>
       <c r="H34" t="n">
-        <v>97.60996914411398</v>
+        <v>97.60996914411405</v>
       </c>
       <c r="I34" t="n">
-        <v>49.30641380788457</v>
+        <v>49.30641380788465</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95577102843667</v>
+        <v>41.95577102843539</v>
       </c>
       <c r="S34" t="n">
         <v>142.663892771102</v>
       </c>
       <c r="T34" t="n">
-        <v>172.3823104169183</v>
+        <v>172.3823104169184</v>
       </c>
       <c r="U34" t="n">
-        <v>239.0254765248729</v>
+        <v>239.025476524873</v>
       </c>
       <c r="V34" t="n">
-        <v>204.9510266066033</v>
+        <v>204.9510266066034</v>
       </c>
       <c r="W34" t="n">
-        <v>239.3363816193663</v>
+        <v>239.3363816193664</v>
       </c>
       <c r="X34" t="n">
         <v>178.5230386718125</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.3980366348701</v>
+        <v>171.3980366348702</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.23867289520697</v>
+        <v>62.23867289520699</v>
       </c>
       <c r="T35" t="n">
-        <v>156.7769827389366</v>
+        <v>156.7769827389365</v>
       </c>
       <c r="U35" t="n">
         <v>203.8093891298151</v>
@@ -3363,7 +3363,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I36" t="n">
-        <v>10.33959683028451</v>
+        <v>9.850416382685024</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>0.4891804475996651</v>
       </c>
       <c r="S36" t="n">
         <v>128.247100173363</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9557710284367</v>
+        <v>41.95577102843669</v>
       </c>
       <c r="S37" t="n">
         <v>142.663892771102</v>
       </c>
       <c r="T37" t="n">
-        <v>172.3823104169184</v>
+        <v>172.3823104169183</v>
       </c>
       <c r="U37" t="n">
         <v>239.0254765248729</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.23867289520696</v>
+        <v>62.23867289520699</v>
       </c>
       <c r="T38" t="n">
         <v>156.7769827389365</v>
@@ -3600,7 +3600,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I39" t="n">
-        <v>10.33959683028452</v>
+        <v>9.85041638268501</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>0.4891804475996651</v>
       </c>
       <c r="S39" t="n">
         <v>128.247100173363</v>
@@ -3661,25 +3661,25 @@
         <v>132.6453634647126</v>
       </c>
       <c r="C40" t="n">
-        <v>120.0602043814031</v>
+        <v>120.0602043814032</v>
       </c>
       <c r="D40" t="n">
         <v>101.4288563009877</v>
       </c>
       <c r="E40" t="n">
-        <v>99.24734592934448</v>
+        <v>99.24734592934449</v>
       </c>
       <c r="F40" t="n">
-        <v>98.23443130570655</v>
+        <v>98.23443130570656</v>
       </c>
       <c r="G40" t="n">
         <v>118.843867210691</v>
       </c>
       <c r="H40" t="n">
-        <v>97.60996914411399</v>
+        <v>97.609969144114</v>
       </c>
       <c r="I40" t="n">
-        <v>49.30641380788459</v>
+        <v>49.3064138078846</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.23867289520696</v>
+        <v>62.23867289520694</v>
       </c>
       <c r="T41" t="n">
         <v>156.7769827389365</v>
@@ -3837,7 +3837,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I42" t="n">
-        <v>10.33959683028453</v>
+        <v>9.850416382685038</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>0.4891804475996651</v>
       </c>
       <c r="S42" t="n">
         <v>128.247100173363</v>
@@ -3901,22 +3901,22 @@
         <v>120.0602043814031</v>
       </c>
       <c r="D43" t="n">
-        <v>101.4288563009877</v>
+        <v>101.4288563009876</v>
       </c>
       <c r="E43" t="n">
-        <v>99.24734592934448</v>
+        <v>99.24734592934445</v>
       </c>
       <c r="F43" t="n">
-        <v>98.23443130570655</v>
+        <v>98.23443130570652</v>
       </c>
       <c r="G43" t="n">
         <v>118.843867210691</v>
       </c>
       <c r="H43" t="n">
-        <v>97.60996914411399</v>
+        <v>97.60996914411396</v>
       </c>
       <c r="I43" t="n">
-        <v>49.30641380788459</v>
+        <v>49.30641380788456</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95577102843669</v>
+        <v>41.95577102843666</v>
       </c>
       <c r="S43" t="n">
         <v>142.663892771102</v>
@@ -3961,7 +3961,7 @@
         <v>239.3363816193663</v>
       </c>
       <c r="X43" t="n">
-        <v>178.5230386718125</v>
+        <v>178.5230386718124</v>
       </c>
       <c r="Y43" t="n">
         <v>171.3980366348701</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.23867289520695</v>
+        <v>62.23867289520696</v>
       </c>
       <c r="T44" t="n">
         <v>156.7769827389365</v>
@@ -4074,7 +4074,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I45" t="n">
-        <v>10.33959683028453</v>
+        <v>10.33959683028451</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4796,10 +4796,10 @@
         <v>6.667680719235332</v>
       </c>
       <c r="H8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
@@ -4808,16 +4808,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M8" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N8" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O8" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="C9" t="n">
         <v>8.2497170613261</v>
@@ -4887,19 +4887,19 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L9" t="n">
-        <v>14.16465422792556</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M9" t="n">
-        <v>20.69689768255142</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N9" t="n">
-        <v>20.69689768255142</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O9" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="P9" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
@@ -4908,25 +4908,25 @@
         <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="U9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="V9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="W9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="X9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>10.86425143297768</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.86425143297768</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10.86425143297768</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10.86425143297768</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.86425143297768</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.86425143297768</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.86425143297768</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.86425143297768</v>
+      </c>
+      <c r="J10" t="n">
         <v>7.495584408540386</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="F10" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
@@ -4984,28 +4984,28 @@
         <v>17.80975218218115</v>
       </c>
       <c r="R10" t="n">
+        <v>17.80975218218115</v>
+      </c>
+      <c r="S10" t="n">
+        <v>17.80975218218115</v>
+      </c>
+      <c r="T10" t="n">
+        <v>17.80975218218115</v>
+      </c>
+      <c r="U10" t="n">
+        <v>17.80975218218115</v>
+      </c>
+      <c r="V10" t="n">
         <v>10.86425143297768</v>
       </c>
-      <c r="S10" t="n">
+      <c r="W10" t="n">
         <v>10.86425143297768</v>
       </c>
-      <c r="T10" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="U10" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="V10" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="W10" t="n">
-        <v>7.495584408540386</v>
-      </c>
       <c r="X10" t="n">
-        <v>7.495584408540386</v>
+        <v>10.86425143297768</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.495584408540386</v>
+        <v>10.86425143297768</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1522.474470324351</v>
+        <v>1587.218546937564</v>
       </c>
       <c r="C11" t="n">
-        <v>1153.511953383939</v>
+        <v>1218.256029997153</v>
       </c>
       <c r="D11" t="n">
-        <v>795.2462547771888</v>
+        <v>859.9903313904022</v>
       </c>
       <c r="E11" t="n">
-        <v>409.4580021789446</v>
+        <v>474.2020787921579</v>
       </c>
       <c r="F11" t="n">
-        <v>409.4580021789446</v>
+        <v>63.21617400255029</v>
       </c>
       <c r="G11" t="n">
-        <v>409.4580021789446</v>
+        <v>63.21617400255029</v>
       </c>
       <c r="H11" t="n">
-        <v>110.4762650207387</v>
+        <v>63.21617400255029</v>
       </c>
       <c r="I11" t="n">
-        <v>63.21617400255035</v>
+        <v>63.21617400255029</v>
       </c>
       <c r="J11" t="n">
-        <v>240.7389105049998</v>
+        <v>240.7389105049995</v>
       </c>
       <c r="K11" t="n">
-        <v>557.5379927460099</v>
+        <v>557.5379927460092</v>
       </c>
       <c r="L11" t="n">
-        <v>987.4570294150151</v>
+        <v>987.4570294150144</v>
       </c>
       <c r="M11" t="n">
-        <v>1497.49423168339</v>
+        <v>1497.494231683389</v>
       </c>
       <c r="N11" t="n">
-        <v>2020.398177490778</v>
+        <v>2020.398177490777</v>
       </c>
       <c r="O11" t="n">
-        <v>2500.826284459066</v>
+        <v>2500.826284459064</v>
       </c>
       <c r="P11" t="n">
-        <v>2876.359557800457</v>
+        <v>2876.359557800455</v>
       </c>
       <c r="Q11" t="n">
-        <v>3110.196660016263</v>
+        <v>3110.196660016261</v>
       </c>
       <c r="R11" t="n">
-        <v>3160.808700127517</v>
+        <v>3160.808700127514</v>
       </c>
       <c r="S11" t="n">
-        <v>3160.808700127517</v>
+        <v>3160.808700127514</v>
       </c>
       <c r="T11" t="n">
-        <v>2966.371611263238</v>
+        <v>3160.808700127514</v>
       </c>
       <c r="U11" t="n">
-        <v>2966.371611263238</v>
+        <v>2907.267301791063</v>
       </c>
       <c r="V11" t="n">
-        <v>2635.308723919667</v>
+        <v>2576.204414447493</v>
       </c>
       <c r="W11" t="n">
-        <v>2282.540068649553</v>
+        <v>2223.435759177378</v>
       </c>
       <c r="X11" t="n">
-        <v>1909.074310388473</v>
+        <v>1973.818387001686</v>
       </c>
       <c r="Y11" t="n">
-        <v>1909.074310388473</v>
+        <v>1973.818387001686</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>74.51035467448014</v>
       </c>
       <c r="I12" t="n">
-        <v>63.21617400255035</v>
+        <v>63.21617400255029</v>
       </c>
       <c r="J12" t="n">
-        <v>214.6970827416109</v>
+        <v>255.1771257962321</v>
       </c>
       <c r="K12" t="n">
-        <v>441.4008860278481</v>
+        <v>481.880929082469</v>
       </c>
       <c r="L12" t="n">
-        <v>792.5546676883441</v>
+        <v>833.0347107429648</v>
       </c>
       <c r="M12" t="n">
-        <v>1221.691436204553</v>
+        <v>1262.171479259173</v>
       </c>
       <c r="N12" t="n">
-        <v>1676.594822962826</v>
+        <v>1717.074866017446</v>
       </c>
       <c r="O12" t="n">
-        <v>2070.522754057596</v>
+        <v>2111.002797112215</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.351581817748</v>
+        <v>2407.831624872367</v>
       </c>
       <c r="Q12" t="n">
-        <v>2515.854595957778</v>
+        <v>2556.334639012397</v>
       </c>
       <c r="R12" t="n">
         <v>2556.334639012397</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.4831383259372</v>
+        <v>991.5977625945025</v>
       </c>
       <c r="C13" t="n">
-        <v>121.4831383259372</v>
+        <v>822.6615796665956</v>
       </c>
       <c r="D13" t="n">
-        <v>121.4831383259372</v>
+        <v>672.5449402542597</v>
       </c>
       <c r="E13" t="n">
-        <v>121.4831383259372</v>
+        <v>524.6318466718666</v>
       </c>
       <c r="F13" t="n">
-        <v>121.4831383259372</v>
+        <v>377.7418991739562</v>
       </c>
       <c r="G13" t="n">
-        <v>63.21617400255035</v>
+        <v>209.9778243188607</v>
       </c>
       <c r="H13" t="n">
-        <v>63.21617400255035</v>
+        <v>63.21617400255029</v>
       </c>
       <c r="I13" t="n">
-        <v>63.21617400255035</v>
+        <v>63.21617400255029</v>
       </c>
       <c r="J13" t="n">
-        <v>104.0954215042793</v>
+        <v>104.0954215042792</v>
       </c>
       <c r="K13" t="n">
-        <v>301.1094194718337</v>
+        <v>301.1094194718336</v>
       </c>
       <c r="L13" t="n">
-        <v>608.7459419277995</v>
+        <v>608.7459419277991</v>
       </c>
       <c r="M13" t="n">
-        <v>943.4946441288405</v>
+        <v>943.4946441288398</v>
       </c>
       <c r="N13" t="n">
-        <v>1275.718386813532</v>
+        <v>1275.718386813531</v>
       </c>
       <c r="O13" t="n">
-        <v>1566.564489639298</v>
+        <v>1566.564489639297</v>
       </c>
       <c r="P13" t="n">
-        <v>1791.912893594749</v>
+        <v>1791.912893594748</v>
       </c>
       <c r="Q13" t="n">
-        <v>1864.497367614012</v>
+        <v>1864.497367614011</v>
       </c>
       <c r="R13" t="n">
-        <v>1771.913416874612</v>
+        <v>1864.497367614011</v>
       </c>
       <c r="S13" t="n">
-        <v>1579.160317369127</v>
+        <v>1671.744268108527</v>
       </c>
       <c r="T13" t="n">
-        <v>1357.132047683991</v>
+        <v>1671.744268108527</v>
       </c>
       <c r="U13" t="n">
-        <v>1068.025840542554</v>
+        <v>1671.744268108527</v>
       </c>
       <c r="V13" t="n">
-        <v>813.3413523366672</v>
+        <v>1671.744268108527</v>
       </c>
       <c r="W13" t="n">
-        <v>523.924182299707</v>
+        <v>1394.038806568272</v>
       </c>
       <c r="X13" t="n">
-        <v>523.924182299707</v>
+        <v>1394.038806568272</v>
       </c>
       <c r="Y13" t="n">
-        <v>303.1316031561769</v>
+        <v>1173.246227424742</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1945.190769568341</v>
+        <v>2360.273748613973</v>
       </c>
       <c r="C14" t="n">
-        <v>1576.228252627929</v>
+        <v>1991.311231673561</v>
       </c>
       <c r="D14" t="n">
-        <v>1217.962554021179</v>
+        <v>1633.045533066811</v>
       </c>
       <c r="E14" t="n">
-        <v>832.1743014229344</v>
+        <v>1247.257280468566</v>
       </c>
       <c r="F14" t="n">
-        <v>421.1883966333269</v>
+        <v>836.2713756789587</v>
       </c>
       <c r="G14" t="n">
-        <v>421.1883966333269</v>
+        <v>421.1883966333268</v>
       </c>
       <c r="H14" t="n">
-        <v>123.4969672409401</v>
+        <v>123.49696724094</v>
       </c>
       <c r="I14" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443496</v>
       </c>
       <c r="J14" t="n">
-        <v>436.5030901387693</v>
+        <v>402.2409493255327</v>
       </c>
       <c r="K14" t="n">
-        <v>769.0098018132592</v>
+        <v>734.7476610000226</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.415541758103</v>
+        <v>1184.153400944866</v>
       </c>
       <c r="M14" t="n">
-        <v>1750.135456106598</v>
+        <v>1715.873315293361</v>
       </c>
       <c r="N14" t="n">
-        <v>2295.07296294414</v>
+        <v>2260.810822130903</v>
       </c>
       <c r="O14" t="n">
-        <v>2796.30673679497</v>
+        <v>2762.044595981734</v>
       </c>
       <c r="P14" t="n">
-        <v>3473.915745741029</v>
+        <v>3473.915745741027</v>
       </c>
       <c r="Q14" t="n">
-        <v>3931.279572846691</v>
+        <v>3931.279572846689</v>
       </c>
       <c r="R14" t="n">
-        <v>4054.70767122175</v>
+        <v>4054.707671221748</v>
       </c>
       <c r="S14" t="n">
-        <v>3985.251080317546</v>
+        <v>3944.177075653635</v>
       </c>
       <c r="T14" t="n">
-        <v>3779.227242483039</v>
+        <v>3738.153237819129</v>
       </c>
       <c r="U14" t="n">
-        <v>3779.227242483039</v>
+        <v>3484.621918781715</v>
       </c>
       <c r="V14" t="n">
-        <v>3448.164355139469</v>
+        <v>3484.621918781715</v>
       </c>
       <c r="W14" t="n">
-        <v>3095.395699869354</v>
+        <v>3131.8532635116</v>
       </c>
       <c r="X14" t="n">
-        <v>2721.929941608274</v>
+        <v>2758.38750525052</v>
       </c>
       <c r="Y14" t="n">
-        <v>2331.790609632463</v>
+        <v>2746.873588678095</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>947.6226778276946</v>
+        <v>947.1285561634527</v>
       </c>
       <c r="C15" t="n">
-        <v>773.1696485465676</v>
+        <v>772.6755268823257</v>
       </c>
       <c r="D15" t="n">
-        <v>624.2352388853163</v>
+        <v>623.7411172210744</v>
       </c>
       <c r="E15" t="n">
-        <v>464.9977838798608</v>
+        <v>464.5036622156189</v>
       </c>
       <c r="F15" t="n">
-        <v>318.4632259067458</v>
+        <v>317.9691042425039</v>
       </c>
       <c r="G15" t="n">
-        <v>182.0944922862317</v>
+        <v>181.6003706219898</v>
       </c>
       <c r="H15" t="n">
-        <v>91.53819062674259</v>
+        <v>91.04406896250069</v>
       </c>
       <c r="I15" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443496</v>
       </c>
       <c r="J15" t="n">
-        <v>174.2497766665191</v>
+        <v>174.249776666519</v>
       </c>
       <c r="K15" t="n">
         <v>411.6223991215309</v>
@@ -5379,28 +5379,28 @@
         <v>2571.115728784902</v>
       </c>
       <c r="R15" t="n">
-        <v>2571.115728784902</v>
+        <v>2570.62160712066</v>
       </c>
       <c r="S15" t="n">
-        <v>2441.573203357263</v>
+        <v>2441.079081693021</v>
       </c>
       <c r="T15" t="n">
-        <v>2248.907496265695</v>
+        <v>2248.413374601453</v>
       </c>
       <c r="U15" t="n">
-        <v>2020.839278778194</v>
+        <v>2020.345157113952</v>
       </c>
       <c r="V15" t="n">
-        <v>1785.687170546451</v>
+        <v>1785.193048882209</v>
       </c>
       <c r="W15" t="n">
-        <v>1531.449813818249</v>
+        <v>1530.955692154007</v>
       </c>
       <c r="X15" t="n">
-        <v>1323.598313612717</v>
+        <v>1323.104191948475</v>
       </c>
       <c r="Y15" t="n">
-        <v>1115.838014847763</v>
+        <v>1115.343893183521</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>514.1561281003069</v>
+        <v>937.4482786790577</v>
       </c>
       <c r="C16" t="n">
-        <v>345.2199451724</v>
+        <v>937.4482786790577</v>
       </c>
       <c r="D16" t="n">
-        <v>345.2199451724</v>
+        <v>787.3316392667219</v>
       </c>
       <c r="E16" t="n">
-        <v>345.2199451724</v>
+        <v>639.4185456843288</v>
       </c>
       <c r="F16" t="n">
-        <v>345.2199451724</v>
+        <v>492.5285981864185</v>
       </c>
       <c r="G16" t="n">
-        <v>227.353331062151</v>
+        <v>324.8210386632713</v>
       </c>
       <c r="H16" t="n">
-        <v>81.09415342443501</v>
+        <v>178.5618610255555</v>
       </c>
       <c r="I16" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443496</v>
       </c>
       <c r="J16" t="n">
-        <v>125.8895217789282</v>
+        <v>125.8895217789279</v>
       </c>
       <c r="K16" t="n">
-        <v>329.338909292365</v>
+        <v>329.3389092923647</v>
       </c>
       <c r="L16" t="n">
-        <v>645.2105147399865</v>
+        <v>645.2105147399863</v>
       </c>
       <c r="M16" t="n">
-        <v>988.6419573118919</v>
+        <v>988.6419573118918</v>
       </c>
       <c r="N16" t="n">
         <v>1329.341984208308</v>
@@ -5461,25 +5461,25 @@
         <v>1847.244833946405</v>
       </c>
       <c r="S16" t="n">
-        <v>1655.476642544055</v>
+        <v>1847.244833946405</v>
       </c>
       <c r="T16" t="n">
-        <v>1433.689847459062</v>
+        <v>1640.914896926492</v>
       </c>
       <c r="U16" t="n">
-        <v>1144.586722972094</v>
+        <v>1640.914896926492</v>
       </c>
       <c r="V16" t="n">
-        <v>1144.586722972094</v>
+        <v>1386.230408720605</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.586722972094</v>
+        <v>1386.230408720605</v>
       </c>
       <c r="X16" t="n">
-        <v>916.5971720740768</v>
+        <v>1158.240857822588</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.8045929305466</v>
+        <v>937.4482786790577</v>
       </c>
     </row>
     <row r="17">
@@ -5501,16 +5501,16 @@
         <v>1061.864719024108</v>
       </c>
       <c r="F17" t="n">
-        <v>698.5420634438186</v>
+        <v>698.5420634438187</v>
       </c>
       <c r="G17" t="n">
-        <v>331.1223336075041</v>
+        <v>331.1223336075039</v>
       </c>
       <c r="H17" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443496</v>
       </c>
       <c r="I17" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443496</v>
       </c>
       <c r="J17" t="n">
         <v>436.5030901387693</v>
@@ -5522,31 +5522,31 @@
         <v>1218.415541758103</v>
       </c>
       <c r="M17" t="n">
-        <v>1750.135456106598</v>
+        <v>2195.153854264502</v>
       </c>
       <c r="N17" t="n">
-        <v>2295.07296294414</v>
+        <v>2740.091361102044</v>
       </c>
       <c r="O17" t="n">
-        <v>2796.30673679497</v>
+        <v>3241.325134952875</v>
       </c>
       <c r="P17" t="n">
-        <v>3473.915745741029</v>
+        <v>3634.6155636224</v>
       </c>
       <c r="Q17" t="n">
-        <v>3931.279572846691</v>
+        <v>3931.279572846689</v>
       </c>
       <c r="R17" t="n">
-        <v>4054.70767122175</v>
+        <v>4054.707671221748</v>
       </c>
       <c r="S17" t="n">
-        <v>3991.840324862955</v>
+        <v>3991.840324862953</v>
       </c>
       <c r="T17" t="n">
-        <v>3833.479736237767</v>
+        <v>3833.479736237765</v>
       </c>
       <c r="U17" t="n">
-        <v>3627.61166640967</v>
+        <v>3627.611666409669</v>
       </c>
       <c r="V17" t="n">
         <v>3344.212028275417</v>
@@ -5555,7 +5555,7 @@
         <v>3039.106622214621</v>
       </c>
       <c r="X17" t="n">
-        <v>2713.304113162859</v>
+        <v>2713.304113162858</v>
       </c>
       <c r="Y17" t="n">
         <v>2370.828030396365</v>
@@ -5589,10 +5589,10 @@
         <v>91.04406896250069</v>
       </c>
       <c r="I18" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443496</v>
       </c>
       <c r="J18" t="n">
-        <v>174.2497766665191</v>
+        <v>174.249776666519</v>
       </c>
       <c r="K18" t="n">
         <v>411.6223991215309</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>772.7417171417394</v>
+        <v>772.7417171417405</v>
       </c>
       <c r="C19" t="n">
-        <v>651.4687834231503</v>
+        <v>651.4687834231515</v>
       </c>
       <c r="D19" t="n">
-        <v>549.0153932201324</v>
+        <v>549.0153932201338</v>
       </c>
       <c r="E19" t="n">
-        <v>448.7655488470572</v>
+        <v>448.7655488470585</v>
       </c>
       <c r="F19" t="n">
-        <v>349.5388505584647</v>
+        <v>349.5388505584661</v>
       </c>
       <c r="G19" t="n">
-        <v>229.4945402446353</v>
+        <v>229.4945402446368</v>
       </c>
       <c r="H19" t="n">
-        <v>130.8986118162373</v>
+        <v>130.8986118162375</v>
       </c>
       <c r="I19" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443496</v>
       </c>
       <c r="J19" t="n">
         <v>172.6042723289806</v>
@@ -5677,7 +5677,7 @@
         <v>422.7684103924698</v>
       </c>
       <c r="L19" t="n">
-        <v>785.3547663901437</v>
+        <v>785.3547663901438</v>
       </c>
       <c r="M19" t="n">
         <v>1175.500959512102</v>
@@ -5701,22 +5701,22 @@
         <v>2124.52114536311</v>
       </c>
       <c r="T19" t="n">
-        <v>1950.397599487434</v>
+        <v>1950.397599487435</v>
       </c>
       <c r="U19" t="n">
-        <v>1708.957724209785</v>
+        <v>1708.957724209786</v>
       </c>
       <c r="V19" t="n">
-        <v>1501.936485213216</v>
+        <v>1501.936485213217</v>
       </c>
       <c r="W19" t="n">
-        <v>1260.182564385573</v>
+        <v>1260.182564385574</v>
       </c>
       <c r="X19" t="n">
         <v>1079.856262696874</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.7269327626612</v>
+        <v>906.7269327626623</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1710.592171810467</v>
       </c>
       <c r="D20" t="n">
-        <v>1399.989722413035</v>
+        <v>1399.989722413034</v>
       </c>
       <c r="E20" t="n">
         <v>1061.864719024108</v>
       </c>
       <c r="F20" t="n">
-        <v>698.5420634438187</v>
+        <v>698.5420634438182</v>
       </c>
       <c r="G20" t="n">
-        <v>331.1223336075041</v>
+        <v>331.1223336075039</v>
       </c>
       <c r="H20" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443498</v>
       </c>
       <c r="I20" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443498</v>
       </c>
       <c r="J20" t="n">
         <v>436.5030901387693</v>
@@ -5768,28 +5768,28 @@
         <v>2796.30673679497</v>
       </c>
       <c r="P20" t="n">
-        <v>3473.915745741029</v>
+        <v>3473.915745741027</v>
       </c>
       <c r="Q20" t="n">
-        <v>3931.279572846691</v>
+        <v>3931.279572846689</v>
       </c>
       <c r="R20" t="n">
-        <v>4054.70767122175</v>
+        <v>4054.707671221749</v>
       </c>
       <c r="S20" t="n">
-        <v>3991.840324862955</v>
+        <v>3991.840324862954</v>
       </c>
       <c r="T20" t="n">
-        <v>3833.479736237767</v>
+        <v>3833.479736237765</v>
       </c>
       <c r="U20" t="n">
-        <v>3627.611666409671</v>
+        <v>3627.61166640967</v>
       </c>
       <c r="V20" t="n">
-        <v>3344.212028275418</v>
+        <v>3344.212028275417</v>
       </c>
       <c r="W20" t="n">
-        <v>3039.106622214622</v>
+        <v>3039.106622214621</v>
       </c>
       <c r="X20" t="n">
         <v>2713.304113162859</v>
@@ -5826,10 +5826,10 @@
         <v>91.04406896250069</v>
       </c>
       <c r="I21" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443498</v>
       </c>
       <c r="J21" t="n">
-        <v>174.2497766665191</v>
+        <v>174.249776666519</v>
       </c>
       <c r="K21" t="n">
         <v>411.6223991215309</v>
@@ -5887,25 +5887,25 @@
         <v>772.7417171417397</v>
       </c>
       <c r="C22" t="n">
-        <v>651.4687834231506</v>
+        <v>651.4687834231507</v>
       </c>
       <c r="D22" t="n">
-        <v>549.0153932201328</v>
+        <v>549.0153932201329</v>
       </c>
       <c r="E22" t="n">
-        <v>448.7655488470575</v>
+        <v>448.7655488470576</v>
       </c>
       <c r="F22" t="n">
-        <v>349.538850558465</v>
+        <v>349.5388505584651</v>
       </c>
       <c r="G22" t="n">
-        <v>229.4945402446357</v>
+        <v>229.4945402446358</v>
       </c>
       <c r="H22" t="n">
-        <v>130.8986118162377</v>
+        <v>130.8986118162376</v>
       </c>
       <c r="I22" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443498</v>
       </c>
       <c r="J22" t="n">
         <v>172.6042723289806</v>
@@ -5914,16 +5914,16 @@
         <v>422.7684103924698</v>
       </c>
       <c r="L22" t="n">
-        <v>785.3547663901437</v>
+        <v>785.3547663901443</v>
       </c>
       <c r="M22" t="n">
         <v>1175.500959512102</v>
       </c>
       <c r="N22" t="n">
-        <v>1562.91573695857</v>
+        <v>1562.915736958571</v>
       </c>
       <c r="O22" t="n">
-        <v>1908.305810730271</v>
+        <v>1908.305810730272</v>
       </c>
       <c r="P22" t="n">
         <v>2187.06821582407</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2031.891439541562</v>
+        <v>2031.891439541561</v>
       </c>
       <c r="C23" t="n">
-        <v>1710.592171810468</v>
+        <v>1710.592171810467</v>
       </c>
       <c r="D23" t="n">
         <v>1399.989722413035</v>
       </c>
       <c r="E23" t="n">
-        <v>1061.864719024109</v>
+        <v>1061.864719024108</v>
       </c>
       <c r="F23" t="n">
         <v>698.5420634438187</v>
       </c>
       <c r="G23" t="n">
-        <v>331.1223336075041</v>
+        <v>331.1223336075039</v>
       </c>
       <c r="H23" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443498</v>
       </c>
       <c r="I23" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443498</v>
       </c>
       <c r="J23" t="n">
         <v>436.5030901387693</v>
       </c>
       <c r="K23" t="n">
-        <v>769.0098018132592</v>
+        <v>944.9395017533293</v>
       </c>
       <c r="L23" t="n">
-        <v>1218.415541758103</v>
+        <v>1394.345241698173</v>
       </c>
       <c r="M23" t="n">
-        <v>1750.135456106598</v>
+        <v>1926.065156046668</v>
       </c>
       <c r="N23" t="n">
-        <v>2295.07296294414</v>
+        <v>2471.00266288421</v>
       </c>
       <c r="O23" t="n">
-        <v>2796.30673679497</v>
+        <v>2972.236436735041</v>
       </c>
       <c r="P23" t="n">
-        <v>3473.915745741029</v>
+        <v>3684.107586494334</v>
       </c>
       <c r="Q23" t="n">
-        <v>3931.279572846691</v>
+        <v>3931.27957284669</v>
       </c>
       <c r="R23" t="n">
-        <v>4054.70767122175</v>
+        <v>4054.707671221749</v>
       </c>
       <c r="S23" t="n">
-        <v>3991.840324862955</v>
+        <v>3991.840324862954</v>
       </c>
       <c r="T23" t="n">
         <v>3833.479736237766</v>
       </c>
       <c r="U23" t="n">
-        <v>3627.611666409671</v>
+        <v>3627.61166640967</v>
       </c>
       <c r="V23" t="n">
-        <v>3344.212028275418</v>
+        <v>3344.212028275417</v>
       </c>
       <c r="W23" t="n">
         <v>3039.106622214621</v>
       </c>
       <c r="X23" t="n">
-        <v>2713.30411316286</v>
+        <v>2713.304113162859</v>
       </c>
       <c r="Y23" t="n">
-        <v>2370.828030396366</v>
+        <v>2370.828030396365</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>947.6226778276946</v>
+        <v>947.1285561634527</v>
       </c>
       <c r="C24" t="n">
-        <v>773.1696485465676</v>
+        <v>772.6755268823257</v>
       </c>
       <c r="D24" t="n">
-        <v>624.2352388853163</v>
+        <v>623.7411172210744</v>
       </c>
       <c r="E24" t="n">
-        <v>464.9977838798608</v>
+        <v>464.5036622156189</v>
       </c>
       <c r="F24" t="n">
-        <v>318.4632259067458</v>
+        <v>317.9691042425039</v>
       </c>
       <c r="G24" t="n">
-        <v>182.0944922862317</v>
+        <v>181.6003706219898</v>
       </c>
       <c r="H24" t="n">
-        <v>91.53819062674259</v>
+        <v>91.04406896250069</v>
       </c>
       <c r="I24" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443498</v>
       </c>
       <c r="J24" t="n">
-        <v>174.2497766665191</v>
+        <v>174.249776666519</v>
       </c>
       <c r="K24" t="n">
         <v>411.6223991215309</v>
@@ -6090,28 +6090,28 @@
         <v>2571.115728784902</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.115728784902</v>
+        <v>2570.62160712066</v>
       </c>
       <c r="S24" t="n">
-        <v>2441.573203357263</v>
+        <v>2441.079081693021</v>
       </c>
       <c r="T24" t="n">
-        <v>2248.907496265695</v>
+        <v>2248.413374601453</v>
       </c>
       <c r="U24" t="n">
-        <v>2020.839278778194</v>
+        <v>2020.345157113952</v>
       </c>
       <c r="V24" t="n">
-        <v>1785.687170546451</v>
+        <v>1785.193048882209</v>
       </c>
       <c r="W24" t="n">
-        <v>1531.449813818249</v>
+        <v>1530.955692154007</v>
       </c>
       <c r="X24" t="n">
-        <v>1323.598313612717</v>
+        <v>1323.104191948475</v>
       </c>
       <c r="Y24" t="n">
-        <v>1115.838014847763</v>
+        <v>1115.343893183521</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>772.7417171417397</v>
+        <v>772.7417171417395</v>
       </c>
       <c r="C25" t="n">
-        <v>651.4687834231506</v>
+        <v>651.4687834231505</v>
       </c>
       <c r="D25" t="n">
-        <v>549.0153932201328</v>
+        <v>549.0153932201326</v>
       </c>
       <c r="E25" t="n">
-        <v>448.7655488470575</v>
+        <v>448.7655488470574</v>
       </c>
       <c r="F25" t="n">
-        <v>349.538850558465</v>
+        <v>349.5388505584649</v>
       </c>
       <c r="G25" t="n">
-        <v>229.4945402446357</v>
+        <v>229.4945402446356</v>
       </c>
       <c r="H25" t="n">
-        <v>130.8986118162377</v>
+        <v>130.8986118162376</v>
       </c>
       <c r="I25" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443498</v>
       </c>
       <c r="J25" t="n">
         <v>172.6042723289806</v>
@@ -6151,7 +6151,7 @@
         <v>422.7684103924698</v>
       </c>
       <c r="L25" t="n">
-        <v>785.3547663901437</v>
+        <v>785.3547663901438</v>
       </c>
       <c r="M25" t="n">
         <v>1175.500959512102</v>
@@ -6190,7 +6190,7 @@
         <v>1079.856262696874</v>
       </c>
       <c r="Y25" t="n">
-        <v>906.7269327626616</v>
+        <v>906.7269327626614</v>
       </c>
     </row>
     <row r="26">
@@ -6200,58 +6200,58 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2031.891439541562</v>
+        <v>2031.891439541563</v>
       </c>
       <c r="C26" t="n">
-        <v>1710.592171810468</v>
+        <v>1710.592171810469</v>
       </c>
       <c r="D26" t="n">
-        <v>1399.989722413035</v>
+        <v>1399.989722413036</v>
       </c>
       <c r="E26" t="n">
         <v>1061.864719024109</v>
       </c>
       <c r="F26" t="n">
-        <v>698.5420634438192</v>
+        <v>698.5420634438199</v>
       </c>
       <c r="G26" t="n">
         <v>331.1223336075041</v>
       </c>
       <c r="H26" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443502</v>
       </c>
       <c r="I26" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443502</v>
       </c>
       <c r="J26" t="n">
         <v>436.5030901387693</v>
       </c>
       <c r="K26" t="n">
-        <v>769.0098018132592</v>
+        <v>769.0098018132593</v>
       </c>
       <c r="L26" t="n">
         <v>1218.415541758103</v>
       </c>
       <c r="M26" t="n">
-        <v>1811.672421968573</v>
+        <v>1750.135456106598</v>
       </c>
       <c r="N26" t="n">
-        <v>2789.583383973979</v>
+        <v>2295.07296294414</v>
       </c>
       <c r="O26" t="n">
-        <v>3290.817157824809</v>
+        <v>2796.30673679497</v>
       </c>
       <c r="P26" t="n">
-        <v>3684.107586494335</v>
+        <v>3508.177886554263</v>
       </c>
       <c r="Q26" t="n">
-        <v>3931.279572846691</v>
+        <v>3931.279572846692</v>
       </c>
       <c r="R26" t="n">
-        <v>4054.70767122175</v>
+        <v>4054.707671221751</v>
       </c>
       <c r="S26" t="n">
-        <v>3991.840324862955</v>
+        <v>3991.840324862956</v>
       </c>
       <c r="T26" t="n">
         <v>3833.479736237767</v>
@@ -6260,16 +6260,16 @@
         <v>3627.611666409671</v>
       </c>
       <c r="V26" t="n">
-        <v>3344.212028275418</v>
+        <v>3344.212028275419</v>
       </c>
       <c r="W26" t="n">
-        <v>3039.106622214621</v>
+        <v>3039.106622214622</v>
       </c>
       <c r="X26" t="n">
         <v>2713.30411316286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2370.828030396366</v>
+        <v>2370.828030396367</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>947.6226778276946</v>
+        <v>947.1285561634527</v>
       </c>
       <c r="C27" t="n">
-        <v>773.1696485465676</v>
+        <v>772.6755268823257</v>
       </c>
       <c r="D27" t="n">
-        <v>624.2352388853163</v>
+        <v>623.7411172210744</v>
       </c>
       <c r="E27" t="n">
-        <v>464.9977838798608</v>
+        <v>464.5036622156189</v>
       </c>
       <c r="F27" t="n">
-        <v>318.4632259067458</v>
+        <v>317.9691042425039</v>
       </c>
       <c r="G27" t="n">
-        <v>182.0944922862317</v>
+        <v>181.6003706219898</v>
       </c>
       <c r="H27" t="n">
-        <v>91.53819062674259</v>
+        <v>91.04406896250069</v>
       </c>
       <c r="I27" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443502</v>
       </c>
       <c r="J27" t="n">
         <v>174.2497766665191</v>
@@ -6327,28 +6327,28 @@
         <v>2571.115728784902</v>
       </c>
       <c r="R27" t="n">
-        <v>2571.115728784902</v>
+        <v>2570.62160712066</v>
       </c>
       <c r="S27" t="n">
-        <v>2441.573203357263</v>
+        <v>2441.079081693021</v>
       </c>
       <c r="T27" t="n">
-        <v>2248.907496265695</v>
+        <v>2248.413374601453</v>
       </c>
       <c r="U27" t="n">
-        <v>2020.839278778194</v>
+        <v>2020.345157113952</v>
       </c>
       <c r="V27" t="n">
-        <v>1785.687170546451</v>
+        <v>1785.193048882209</v>
       </c>
       <c r="W27" t="n">
-        <v>1531.449813818249</v>
+        <v>1530.955692154007</v>
       </c>
       <c r="X27" t="n">
-        <v>1323.598313612717</v>
+        <v>1323.104191948475</v>
       </c>
       <c r="Y27" t="n">
-        <v>1115.838014847763</v>
+        <v>1115.343893183521</v>
       </c>
     </row>
     <row r="28">
@@ -6358,55 +6358,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>772.7417171417394</v>
+        <v>772.7417171417391</v>
       </c>
       <c r="C28" t="n">
-        <v>651.4687834231503</v>
+        <v>651.4687834231499</v>
       </c>
       <c r="D28" t="n">
-        <v>549.0153932201324</v>
+        <v>549.0153932201321</v>
       </c>
       <c r="E28" t="n">
-        <v>448.7655488470571</v>
+        <v>448.7655488470568</v>
       </c>
       <c r="F28" t="n">
-        <v>349.538850558465</v>
+        <v>349.5388505584643</v>
       </c>
       <c r="G28" t="n">
-        <v>229.4945402446356</v>
+        <v>229.494540244635</v>
       </c>
       <c r="H28" t="n">
-        <v>130.8986118162377</v>
+        <v>130.898611816237</v>
       </c>
       <c r="I28" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443502</v>
       </c>
       <c r="J28" t="n">
         <v>172.6042723289806</v>
       </c>
       <c r="K28" t="n">
-        <v>422.7684103924693</v>
+        <v>422.7684103924698</v>
       </c>
       <c r="L28" t="n">
-        <v>785.3547663901431</v>
+        <v>785.3547663901437</v>
       </c>
       <c r="M28" t="n">
-        <v>1175.500959512101</v>
+        <v>1175.500959512102</v>
       </c>
       <c r="N28" t="n">
         <v>1562.91573695857</v>
       </c>
       <c r="O28" t="n">
-        <v>1908.30581073027</v>
+        <v>1908.305810730271</v>
       </c>
       <c r="P28" t="n">
-        <v>2187.068215824069</v>
+        <v>2187.06821582407</v>
       </c>
       <c r="Q28" t="n">
         <v>2311.005654251532</v>
       </c>
       <c r="R28" t="n">
-        <v>2268.626087556141</v>
+        <v>2268.626087556142</v>
       </c>
       <c r="S28" t="n">
         <v>2124.521145363109</v>
@@ -6421,13 +6421,13 @@
         <v>1501.936485213215</v>
       </c>
       <c r="W28" t="n">
-        <v>1260.182564385572</v>
+        <v>1260.182564385573</v>
       </c>
       <c r="X28" t="n">
-        <v>1079.856262696874</v>
+        <v>1079.856262696873</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.7269327626612</v>
+        <v>906.7269327626609</v>
       </c>
     </row>
     <row r="29">
@@ -6437,58 +6437,58 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2031.891439541562</v>
+        <v>2031.891439541561</v>
       </c>
       <c r="C29" t="n">
-        <v>1710.592171810468</v>
+        <v>1710.592171810467</v>
       </c>
       <c r="D29" t="n">
         <v>1399.989722413035</v>
       </c>
       <c r="E29" t="n">
-        <v>1061.864719024109</v>
+        <v>1061.864719024108</v>
       </c>
       <c r="F29" t="n">
         <v>698.5420634438187</v>
       </c>
       <c r="G29" t="n">
-        <v>331.1223336075041</v>
+        <v>331.1223336075039</v>
       </c>
       <c r="H29" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443498</v>
       </c>
       <c r="I29" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443498</v>
       </c>
       <c r="J29" t="n">
         <v>436.5030901387693</v>
       </c>
       <c r="K29" t="n">
-        <v>769.0098018132592</v>
+        <v>886.5280433929793</v>
       </c>
       <c r="L29" t="n">
-        <v>1218.415541758103</v>
+        <v>1335.933783337823</v>
       </c>
       <c r="M29" t="n">
-        <v>1750.135456106598</v>
+        <v>1867.653697686318</v>
       </c>
       <c r="N29" t="n">
-        <v>2295.07296294414</v>
+        <v>2412.59120452386</v>
       </c>
       <c r="O29" t="n">
-        <v>2796.30673679497</v>
+        <v>3290.817157824808</v>
       </c>
       <c r="P29" t="n">
-        <v>3473.915745741029</v>
+        <v>3684.107586494334</v>
       </c>
       <c r="Q29" t="n">
-        <v>3931.279572846691</v>
+        <v>3931.27957284669</v>
       </c>
       <c r="R29" t="n">
-        <v>4054.70767122175</v>
+        <v>4054.707671221749</v>
       </c>
       <c r="S29" t="n">
-        <v>3991.840324862955</v>
+        <v>3991.840324862954</v>
       </c>
       <c r="T29" t="n">
         <v>3833.479736237766</v>
@@ -6497,16 +6497,16 @@
         <v>3627.61166640967</v>
       </c>
       <c r="V29" t="n">
-        <v>3344.212028275418</v>
+        <v>3344.212028275417</v>
       </c>
       <c r="W29" t="n">
         <v>3039.106622214621</v>
       </c>
       <c r="X29" t="n">
-        <v>2713.30411316286</v>
+        <v>2713.304113162859</v>
       </c>
       <c r="Y29" t="n">
-        <v>2370.828030396366</v>
+        <v>2370.828030396365</v>
       </c>
     </row>
     <row r="30">
@@ -6537,10 +6537,10 @@
         <v>91.53819062674259</v>
       </c>
       <c r="I30" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443498</v>
       </c>
       <c r="J30" t="n">
-        <v>174.2497766665191</v>
+        <v>174.249776666519</v>
       </c>
       <c r="K30" t="n">
         <v>411.6223991215309</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>772.7417171417397</v>
+        <v>772.7417171417394</v>
       </c>
       <c r="C31" t="n">
-        <v>651.4687834231506</v>
+        <v>651.4687834231504</v>
       </c>
       <c r="D31" t="n">
-        <v>549.0153932201328</v>
+        <v>549.0153932201325</v>
       </c>
       <c r="E31" t="n">
-        <v>448.7655488470575</v>
+        <v>448.7655488470573</v>
       </c>
       <c r="F31" t="n">
-        <v>349.538850558465</v>
+        <v>349.5388505584649</v>
       </c>
       <c r="G31" t="n">
-        <v>229.4945402446357</v>
+        <v>229.4945402446356</v>
       </c>
       <c r="H31" t="n">
-        <v>130.8986118162377</v>
+        <v>130.8986118162376</v>
       </c>
       <c r="I31" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443498</v>
       </c>
       <c r="J31" t="n">
-        <v>172.6042723289806</v>
+        <v>172.6042723289802</v>
       </c>
       <c r="K31" t="n">
-        <v>422.7684103924698</v>
+        <v>422.7684103924695</v>
       </c>
       <c r="L31" t="n">
-        <v>785.3547663901438</v>
+        <v>785.3547663901434</v>
       </c>
       <c r="M31" t="n">
-        <v>1175.500959512102</v>
+        <v>1175.500959512101</v>
       </c>
       <c r="N31" t="n">
         <v>1562.91573695857</v>
       </c>
       <c r="O31" t="n">
-        <v>1908.305810730272</v>
+        <v>1908.305810730271</v>
       </c>
       <c r="P31" t="n">
         <v>2187.06821582407</v>
@@ -6661,10 +6661,10 @@
         <v>1260.182564385573</v>
       </c>
       <c r="X31" t="n">
-        <v>1079.856262696874</v>
+        <v>1079.856262696873</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.7269327626616</v>
+        <v>906.7269327626611</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2031.891439541561</v>
+        <v>2031.891439541562</v>
       </c>
       <c r="C32" t="n">
-        <v>1710.592171810467</v>
+        <v>1710.592171810468</v>
       </c>
       <c r="D32" t="n">
         <v>1399.989722413035</v>
       </c>
       <c r="E32" t="n">
-        <v>1061.864719024108</v>
+        <v>1061.864719024109</v>
       </c>
       <c r="F32" t="n">
-        <v>698.5420634438187</v>
+        <v>698.542063443819</v>
       </c>
       <c r="G32" t="n">
-        <v>331.1223336075039</v>
+        <v>331.1223336075041</v>
       </c>
       <c r="H32" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="I32" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J32" t="n">
         <v>436.5030901387693</v>
       </c>
       <c r="K32" t="n">
-        <v>818.5018246851932</v>
+        <v>1053.328382089793</v>
       </c>
       <c r="L32" t="n">
-        <v>1267.907564630037</v>
+        <v>1502.734122034637</v>
       </c>
       <c r="M32" t="n">
-        <v>2244.645877136436</v>
+        <v>2034.454036383132</v>
       </c>
       <c r="N32" t="n">
-        <v>2789.583383973978</v>
+        <v>2579.391543220674</v>
       </c>
       <c r="O32" t="n">
-        <v>3290.817157824808</v>
+        <v>3080.625317071504</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.107586494334</v>
+        <v>3473.915745741029</v>
       </c>
       <c r="Q32" t="n">
-        <v>3931.27957284669</v>
+        <v>3931.279572846691</v>
       </c>
       <c r="R32" t="n">
-        <v>4054.707671221749</v>
+        <v>4054.70767122175</v>
       </c>
       <c r="S32" t="n">
-        <v>3991.840324862954</v>
+        <v>3991.840324862956</v>
       </c>
       <c r="T32" t="n">
-        <v>3833.479736237766</v>
+        <v>3833.479736237767</v>
       </c>
       <c r="U32" t="n">
-        <v>3627.61166640967</v>
+        <v>3627.611666409671</v>
       </c>
       <c r="V32" t="n">
-        <v>3344.212028275417</v>
+        <v>3344.212028275418</v>
       </c>
       <c r="W32" t="n">
-        <v>3039.106622214621</v>
+        <v>3039.106622214622</v>
       </c>
       <c r="X32" t="n">
-        <v>2713.304113162858</v>
+        <v>2713.30411316286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2370.828030396365</v>
+        <v>2370.828030396366</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.6226778276946</v>
+        <v>947.1285561634527</v>
       </c>
       <c r="C33" t="n">
-        <v>773.1696485465676</v>
+        <v>772.6755268823257</v>
       </c>
       <c r="D33" t="n">
-        <v>624.2352388853163</v>
+        <v>623.7411172210744</v>
       </c>
       <c r="E33" t="n">
-        <v>464.9977838798608</v>
+        <v>464.5036622156189</v>
       </c>
       <c r="F33" t="n">
-        <v>318.4632259067458</v>
+        <v>317.9691042425039</v>
       </c>
       <c r="G33" t="n">
-        <v>182.0944922862317</v>
+        <v>181.6003706219898</v>
       </c>
       <c r="H33" t="n">
-        <v>91.53819062674259</v>
+        <v>91.04406896250069</v>
       </c>
       <c r="I33" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J33" t="n">
-        <v>174.249776666519</v>
+        <v>174.2497766665191</v>
       </c>
       <c r="K33" t="n">
         <v>411.6223991215309</v>
@@ -6801,28 +6801,28 @@
         <v>2571.115728784902</v>
       </c>
       <c r="R33" t="n">
-        <v>2571.115728784902</v>
+        <v>2570.62160712066</v>
       </c>
       <c r="S33" t="n">
-        <v>2441.573203357263</v>
+        <v>2441.079081693021</v>
       </c>
       <c r="T33" t="n">
-        <v>2248.907496265695</v>
+        <v>2248.413374601453</v>
       </c>
       <c r="U33" t="n">
-        <v>2020.839278778194</v>
+        <v>2020.345157113952</v>
       </c>
       <c r="V33" t="n">
-        <v>1785.687170546451</v>
+        <v>1785.193048882209</v>
       </c>
       <c r="W33" t="n">
-        <v>1531.449813818249</v>
+        <v>1530.955692154007</v>
       </c>
       <c r="X33" t="n">
-        <v>1323.598313612717</v>
+        <v>1323.104191948475</v>
       </c>
       <c r="Y33" t="n">
-        <v>1115.838014847763</v>
+        <v>1115.343893183521</v>
       </c>
     </row>
     <row r="34">
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>772.7417171417397</v>
+        <v>772.7417171417396</v>
       </c>
       <c r="C34" t="n">
-        <v>651.4687834231507</v>
+        <v>651.4687834231505</v>
       </c>
       <c r="D34" t="n">
-        <v>549.0153932201329</v>
+        <v>549.0153932201326</v>
       </c>
       <c r="E34" t="n">
-        <v>448.7655488470576</v>
+        <v>448.7655488470573</v>
       </c>
       <c r="F34" t="n">
-        <v>349.5388505584651</v>
+        <v>349.5388505584647</v>
       </c>
       <c r="G34" t="n">
-        <v>229.4945402446358</v>
+        <v>229.4945402446353</v>
       </c>
       <c r="H34" t="n">
-        <v>130.8986118162376</v>
+        <v>130.8986118162377</v>
       </c>
       <c r="I34" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J34" t="n">
         <v>172.6042723289806</v>
       </c>
       <c r="K34" t="n">
-        <v>422.7684103924698</v>
+        <v>422.7684103924693</v>
       </c>
       <c r="L34" t="n">
-        <v>785.3547663901437</v>
+        <v>785.3547663901431</v>
       </c>
       <c r="M34" t="n">
-        <v>1175.500959512102</v>
+        <v>1175.500959512101</v>
       </c>
       <c r="N34" t="n">
-        <v>1562.91573695857</v>
+        <v>1562.915736958569</v>
       </c>
       <c r="O34" t="n">
-        <v>1908.305810730272</v>
+        <v>1908.30581073027</v>
       </c>
       <c r="P34" t="n">
-        <v>2187.06821582407</v>
+        <v>2187.068215824069</v>
       </c>
       <c r="Q34" t="n">
-        <v>2311.005654251533</v>
+        <v>2311.005654251531</v>
       </c>
       <c r="R34" t="n">
         <v>2268.626087556142</v>
@@ -6886,7 +6886,7 @@
         <v>2124.52114536311</v>
       </c>
       <c r="T34" t="n">
-        <v>1950.397599487435</v>
+        <v>1950.397599487434</v>
       </c>
       <c r="U34" t="n">
         <v>1708.957724209785</v>
@@ -6901,7 +6901,7 @@
         <v>1079.856262696874</v>
       </c>
       <c r="Y34" t="n">
-        <v>906.7269327626616</v>
+        <v>906.7269327626615</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2031.891439541562</v>
+        <v>2031.89143954156</v>
       </c>
       <c r="C35" t="n">
-        <v>1710.592171810468</v>
+        <v>1710.592171810466</v>
       </c>
       <c r="D35" t="n">
-        <v>1399.989722413035</v>
+        <v>1399.989722413034</v>
       </c>
       <c r="E35" t="n">
-        <v>1061.864719024109</v>
+        <v>1061.864719024107</v>
       </c>
       <c r="F35" t="n">
-        <v>698.5420634438192</v>
+        <v>698.5420634438178</v>
       </c>
       <c r="G35" t="n">
         <v>331.122333607504</v>
@@ -6962,25 +6962,25 @@
         <v>4054.70767122175</v>
       </c>
       <c r="S35" t="n">
-        <v>3991.840324862955</v>
+        <v>3991.840324862954</v>
       </c>
       <c r="T35" t="n">
-        <v>3833.479736237767</v>
+        <v>3833.479736237765</v>
       </c>
       <c r="U35" t="n">
-        <v>3627.611666409671</v>
+        <v>3627.611666409669</v>
       </c>
       <c r="V35" t="n">
-        <v>3344.212028275418</v>
+        <v>3344.212028275416</v>
       </c>
       <c r="W35" t="n">
-        <v>3039.106622214622</v>
+        <v>3039.10662221462</v>
       </c>
       <c r="X35" t="n">
-        <v>2713.30411316286</v>
+        <v>2713.304113162858</v>
       </c>
       <c r="Y35" t="n">
-        <v>2370.828030396366</v>
+        <v>2370.828030396364</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>947.6226778276946</v>
+        <v>947.1285561634527</v>
       </c>
       <c r="C36" t="n">
-        <v>773.1696485465676</v>
+        <v>772.6755268823257</v>
       </c>
       <c r="D36" t="n">
-        <v>624.2352388853163</v>
+        <v>623.7411172210744</v>
       </c>
       <c r="E36" t="n">
-        <v>464.9977838798608</v>
+        <v>464.5036622156189</v>
       </c>
       <c r="F36" t="n">
-        <v>318.4632259067458</v>
+        <v>317.9691042425039</v>
       </c>
       <c r="G36" t="n">
-        <v>182.0944922862317</v>
+        <v>181.6003706219898</v>
       </c>
       <c r="H36" t="n">
-        <v>91.53819062674259</v>
+        <v>91.04406896250069</v>
       </c>
       <c r="I36" t="n">
         <v>81.09415342443501</v>
@@ -7038,28 +7038,28 @@
         <v>2571.115728784902</v>
       </c>
       <c r="R36" t="n">
-        <v>2571.115728784902</v>
+        <v>2570.62160712066</v>
       </c>
       <c r="S36" t="n">
-        <v>2441.573203357263</v>
+        <v>2441.079081693021</v>
       </c>
       <c r="T36" t="n">
-        <v>2248.907496265695</v>
+        <v>2248.413374601453</v>
       </c>
       <c r="U36" t="n">
-        <v>2020.839278778194</v>
+        <v>2020.345157113952</v>
       </c>
       <c r="V36" t="n">
-        <v>1785.687170546451</v>
+        <v>1785.193048882209</v>
       </c>
       <c r="W36" t="n">
-        <v>1531.449813818249</v>
+        <v>1530.955692154007</v>
       </c>
       <c r="X36" t="n">
-        <v>1323.598313612717</v>
+        <v>1323.104191948475</v>
       </c>
       <c r="Y36" t="n">
-        <v>1115.838014847763</v>
+        <v>1115.343893183521</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>772.7417171417393</v>
+        <v>772.7417171417396</v>
       </c>
       <c r="C37" t="n">
-        <v>651.4687834231503</v>
+        <v>651.4687834231506</v>
       </c>
       <c r="D37" t="n">
-        <v>549.0153932201324</v>
+        <v>549.0153932201328</v>
       </c>
       <c r="E37" t="n">
-        <v>448.7655488470572</v>
+        <v>448.7655488470575</v>
       </c>
       <c r="F37" t="n">
-        <v>349.5388505584647</v>
+        <v>349.538850558465</v>
       </c>
       <c r="G37" t="n">
-        <v>229.4945402446353</v>
+        <v>229.4945402446356</v>
       </c>
       <c r="H37" t="n">
         <v>130.8986118162376</v>
@@ -7096,10 +7096,10 @@
         <v>172.6042723289806</v>
       </c>
       <c r="K37" t="n">
-        <v>422.7684103924698</v>
+        <v>422.7684103924699</v>
       </c>
       <c r="L37" t="n">
-        <v>785.3547663901437</v>
+        <v>785.3547663901438</v>
       </c>
       <c r="M37" t="n">
         <v>1175.500959512102</v>
@@ -7135,10 +7135,10 @@
         <v>1260.182564385573</v>
       </c>
       <c r="X37" t="n">
-        <v>1079.856262696873</v>
+        <v>1079.856262696874</v>
       </c>
       <c r="Y37" t="n">
-        <v>906.7269327626611</v>
+        <v>906.7269327626615</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2031.891439541561</v>
+        <v>2031.891439541563</v>
       </c>
       <c r="C38" t="n">
-        <v>1710.592171810467</v>
+        <v>1710.592171810469</v>
       </c>
       <c r="D38" t="n">
-        <v>1399.989722413035</v>
+        <v>1399.989722413037</v>
       </c>
       <c r="E38" t="n">
-        <v>1061.864719024108</v>
+        <v>1061.86471902411</v>
       </c>
       <c r="F38" t="n">
-        <v>698.5420634438187</v>
+        <v>698.5420634438203</v>
       </c>
       <c r="G38" t="n">
         <v>331.122333607504</v>
       </c>
       <c r="H38" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443502</v>
       </c>
       <c r="I38" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443502</v>
       </c>
       <c r="J38" t="n">
         <v>436.5030901387693</v>
       </c>
       <c r="K38" t="n">
-        <v>769.0098018132592</v>
+        <v>769.0098018132593</v>
       </c>
       <c r="L38" t="n">
         <v>1218.415541758103</v>
@@ -7190,34 +7190,34 @@
         <v>2796.30673679497</v>
       </c>
       <c r="P38" t="n">
-        <v>3508.177886554263</v>
+        <v>3473.91574574103</v>
       </c>
       <c r="Q38" t="n">
-        <v>3931.27957284669</v>
+        <v>3931.279572846692</v>
       </c>
       <c r="R38" t="n">
-        <v>4054.707671221749</v>
+        <v>4054.707671221751</v>
       </c>
       <c r="S38" t="n">
-        <v>3991.840324862954</v>
+        <v>3991.840324862956</v>
       </c>
       <c r="T38" t="n">
-        <v>3833.479736237766</v>
+        <v>3833.479736237768</v>
       </c>
       <c r="U38" t="n">
-        <v>3627.61166640967</v>
+        <v>3627.611666409672</v>
       </c>
       <c r="V38" t="n">
-        <v>3344.212028275417</v>
+        <v>3344.212028275419</v>
       </c>
       <c r="W38" t="n">
-        <v>3039.106622214621</v>
+        <v>3039.106622214623</v>
       </c>
       <c r="X38" t="n">
-        <v>2713.304113162859</v>
+        <v>2713.304113162861</v>
       </c>
       <c r="Y38" t="n">
-        <v>2370.828030396365</v>
+        <v>2370.828030396367</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>947.6226778276946</v>
+        <v>947.1285561634527</v>
       </c>
       <c r="C39" t="n">
-        <v>773.1696485465676</v>
+        <v>772.6755268823257</v>
       </c>
       <c r="D39" t="n">
-        <v>624.2352388853163</v>
+        <v>623.7411172210744</v>
       </c>
       <c r="E39" t="n">
-        <v>464.9977838798608</v>
+        <v>464.5036622156189</v>
       </c>
       <c r="F39" t="n">
-        <v>318.4632259067458</v>
+        <v>317.9691042425039</v>
       </c>
       <c r="G39" t="n">
-        <v>182.0944922862317</v>
+        <v>181.6003706219898</v>
       </c>
       <c r="H39" t="n">
-        <v>91.53819062674259</v>
+        <v>91.04406896250069</v>
       </c>
       <c r="I39" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443502</v>
       </c>
       <c r="J39" t="n">
         <v>174.2497766665191</v>
@@ -7275,28 +7275,28 @@
         <v>2571.115728784902</v>
       </c>
       <c r="R39" t="n">
-        <v>2571.115728784902</v>
+        <v>2570.62160712066</v>
       </c>
       <c r="S39" t="n">
-        <v>2441.573203357263</v>
+        <v>2441.079081693021</v>
       </c>
       <c r="T39" t="n">
-        <v>2248.907496265695</v>
+        <v>2248.413374601453</v>
       </c>
       <c r="U39" t="n">
-        <v>2020.839278778194</v>
+        <v>2020.345157113952</v>
       </c>
       <c r="V39" t="n">
-        <v>1785.687170546451</v>
+        <v>1785.193048882209</v>
       </c>
       <c r="W39" t="n">
-        <v>1531.449813818249</v>
+        <v>1530.955692154007</v>
       </c>
       <c r="X39" t="n">
-        <v>1323.598313612717</v>
+        <v>1323.104191948475</v>
       </c>
       <c r="Y39" t="n">
-        <v>1115.838014847763</v>
+        <v>1115.343893183521</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>772.7417171417395</v>
+        <v>772.7417171417396</v>
       </c>
       <c r="C40" t="n">
-        <v>651.4687834231505</v>
+        <v>651.4687834231506</v>
       </c>
       <c r="D40" t="n">
-        <v>549.0153932201326</v>
+        <v>549.0153932201328</v>
       </c>
       <c r="E40" t="n">
-        <v>448.7655488470574</v>
+        <v>448.7655488470575</v>
       </c>
       <c r="F40" t="n">
-        <v>349.5388505584649</v>
+        <v>349.538850558465</v>
       </c>
       <c r="G40" t="n">
-        <v>229.4945402446356</v>
+        <v>229.4945402446357</v>
       </c>
       <c r="H40" t="n">
-        <v>130.8986118162376</v>
+        <v>130.8986118162377</v>
       </c>
       <c r="I40" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443502</v>
       </c>
       <c r="J40" t="n">
         <v>172.6042723289806</v>
       </c>
       <c r="K40" t="n">
-        <v>422.7684103924699</v>
+        <v>422.7684103924698</v>
       </c>
       <c r="L40" t="n">
-        <v>785.3547663901438</v>
+        <v>785.3547663901437</v>
       </c>
       <c r="M40" t="n">
         <v>1175.500959512102</v>
@@ -7351,13 +7351,13 @@
         <v>2187.06821582407</v>
       </c>
       <c r="Q40" t="n">
-        <v>2311.005654251533</v>
+        <v>2311.005654251532</v>
       </c>
       <c r="R40" t="n">
         <v>2268.626087556142</v>
       </c>
       <c r="S40" t="n">
-        <v>2124.52114536311</v>
+        <v>2124.521145363109</v>
       </c>
       <c r="T40" t="n">
         <v>1950.397599487434</v>
@@ -7375,7 +7375,7 @@
         <v>1079.856262696874</v>
       </c>
       <c r="Y40" t="n">
-        <v>906.7269327626614</v>
+        <v>906.7269327626615</v>
       </c>
     </row>
     <row r="41">
@@ -7394,19 +7394,19 @@
         <v>1399.989722413035</v>
       </c>
       <c r="E41" t="n">
-        <v>1061.864719024108</v>
+        <v>1061.864719024109</v>
       </c>
       <c r="F41" t="n">
-        <v>698.5420634438187</v>
+        <v>698.5420634438192</v>
       </c>
       <c r="G41" t="n">
         <v>331.1223336075039</v>
       </c>
       <c r="H41" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="I41" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J41" t="n">
         <v>436.5030901387693</v>
@@ -7421,13 +7421,13 @@
         <v>1750.135456106598</v>
       </c>
       <c r="N41" t="n">
-        <v>2295.07296294414</v>
+        <v>2412.591204523861</v>
       </c>
       <c r="O41" t="n">
-        <v>2796.30673679497</v>
+        <v>3290.817157824809</v>
       </c>
       <c r="P41" t="n">
-        <v>3473.915745741028</v>
+        <v>3684.107586494334</v>
       </c>
       <c r="Q41" t="n">
         <v>3931.27957284669</v>
@@ -7451,7 +7451,7 @@
         <v>3039.106622214621</v>
       </c>
       <c r="X41" t="n">
-        <v>2713.304113162858</v>
+        <v>2713.304113162859</v>
       </c>
       <c r="Y41" t="n">
         <v>2370.828030396365</v>
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>947.6226778276946</v>
+        <v>947.1285561634527</v>
       </c>
       <c r="C42" t="n">
-        <v>773.1696485465676</v>
+        <v>772.6755268823257</v>
       </c>
       <c r="D42" t="n">
-        <v>624.2352388853163</v>
+        <v>623.7411172210744</v>
       </c>
       <c r="E42" t="n">
-        <v>464.9977838798608</v>
+        <v>464.5036622156189</v>
       </c>
       <c r="F42" t="n">
-        <v>318.4632259067458</v>
+        <v>317.9691042425039</v>
       </c>
       <c r="G42" t="n">
-        <v>182.0944922862317</v>
+        <v>181.6003706219898</v>
       </c>
       <c r="H42" t="n">
-        <v>91.53819062674259</v>
+        <v>91.04406896250069</v>
       </c>
       <c r="I42" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J42" t="n">
-        <v>174.249776666519</v>
+        <v>174.2497766665191</v>
       </c>
       <c r="K42" t="n">
         <v>411.6223991215309</v>
@@ -7512,28 +7512,28 @@
         <v>2571.115728784902</v>
       </c>
       <c r="R42" t="n">
-        <v>2571.115728784902</v>
+        <v>2570.62160712066</v>
       </c>
       <c r="S42" t="n">
-        <v>2441.573203357263</v>
+        <v>2441.079081693021</v>
       </c>
       <c r="T42" t="n">
-        <v>2248.907496265695</v>
+        <v>2248.413374601453</v>
       </c>
       <c r="U42" t="n">
-        <v>2020.839278778194</v>
+        <v>2020.345157113952</v>
       </c>
       <c r="V42" t="n">
-        <v>1785.687170546451</v>
+        <v>1785.193048882209</v>
       </c>
       <c r="W42" t="n">
-        <v>1531.449813818249</v>
+        <v>1530.955692154007</v>
       </c>
       <c r="X42" t="n">
-        <v>1323.598313612717</v>
+        <v>1323.104191948475</v>
       </c>
       <c r="Y42" t="n">
-        <v>1115.838014847763</v>
+        <v>1115.343893183521</v>
       </c>
     </row>
     <row r="43">
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>772.7417171417393</v>
+        <v>772.7417171417392</v>
       </c>
       <c r="C43" t="n">
-        <v>651.4687834231503</v>
+        <v>651.4687834231502</v>
       </c>
       <c r="D43" t="n">
         <v>549.0153932201324</v>
@@ -7555,37 +7555,37 @@
         <v>448.7655488470572</v>
       </c>
       <c r="F43" t="n">
-        <v>349.5388505584647</v>
+        <v>349.5388505584648</v>
       </c>
       <c r="G43" t="n">
-        <v>229.4945402446353</v>
+        <v>229.4945402446355</v>
       </c>
       <c r="H43" t="n">
         <v>130.8986118162376</v>
       </c>
       <c r="I43" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J43" t="n">
-        <v>172.60427232898</v>
+        <v>172.6042723289806</v>
       </c>
       <c r="K43" t="n">
-        <v>422.7684103924693</v>
+        <v>422.7684103924699</v>
       </c>
       <c r="L43" t="n">
-        <v>785.3547663901431</v>
+        <v>785.3547663901438</v>
       </c>
       <c r="M43" t="n">
-        <v>1175.500959512101</v>
+        <v>1175.500959512102</v>
       </c>
       <c r="N43" t="n">
-        <v>1562.915736958569</v>
+        <v>1562.91573695857</v>
       </c>
       <c r="O43" t="n">
-        <v>1908.30581073027</v>
+        <v>1908.305810730271</v>
       </c>
       <c r="P43" t="n">
-        <v>2187.068215824069</v>
+        <v>2187.06821582407</v>
       </c>
       <c r="Q43" t="n">
         <v>2311.005654251532</v>
@@ -7603,7 +7603,7 @@
         <v>1708.957724209784</v>
       </c>
       <c r="V43" t="n">
-        <v>1501.936485213216</v>
+        <v>1501.936485213215</v>
       </c>
       <c r="W43" t="n">
         <v>1260.182564385573</v>
@@ -7612,7 +7612,7 @@
         <v>1079.856262696873</v>
       </c>
       <c r="Y43" t="n">
-        <v>906.7269327626611</v>
+        <v>906.7269327626609</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2031.891439541559</v>
+        <v>2031.891439541562</v>
       </c>
       <c r="C44" t="n">
-        <v>1710.592171810466</v>
+        <v>1710.592171810468</v>
       </c>
       <c r="D44" t="n">
-        <v>1399.989722413033</v>
+        <v>1399.989722413036</v>
       </c>
       <c r="E44" t="n">
-        <v>1061.864719024107</v>
+        <v>1061.864719024109</v>
       </c>
       <c r="F44" t="n">
-        <v>698.5420634438181</v>
+        <v>698.5420634438196</v>
       </c>
       <c r="G44" t="n">
-        <v>331.1223336075039</v>
+        <v>331.122333607504</v>
       </c>
       <c r="H44" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="I44" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J44" t="n">
-        <v>436.5030901387693</v>
+        <v>402.2409493255345</v>
       </c>
       <c r="K44" t="n">
-        <v>1053.328382089791</v>
+        <v>734.7476610000244</v>
       </c>
       <c r="L44" t="n">
-        <v>1502.734122034635</v>
+        <v>1184.153400944868</v>
       </c>
       <c r="M44" t="n">
-        <v>2034.45403638313</v>
+        <v>1715.873315293363</v>
       </c>
       <c r="N44" t="n">
-        <v>2579.391543220672</v>
+        <v>2260.810822130905</v>
       </c>
       <c r="O44" t="n">
-        <v>3080.625317071503</v>
+        <v>2762.044595981736</v>
       </c>
       <c r="P44" t="n">
-        <v>3473.915745741028</v>
+        <v>3473.915745741029</v>
       </c>
       <c r="Q44" t="n">
-        <v>3931.27957284669</v>
+        <v>3931.279572846691</v>
       </c>
       <c r="R44" t="n">
-        <v>4054.707671221749</v>
+        <v>4054.70767122175</v>
       </c>
       <c r="S44" t="n">
-        <v>3991.840324862954</v>
+        <v>3991.840324862955</v>
       </c>
       <c r="T44" t="n">
-        <v>3833.479736237766</v>
+        <v>3833.479736237767</v>
       </c>
       <c r="U44" t="n">
-        <v>3627.611666409669</v>
+        <v>3627.611666409671</v>
       </c>
       <c r="V44" t="n">
-        <v>3344.212028275416</v>
+        <v>3344.212028275418</v>
       </c>
       <c r="W44" t="n">
-        <v>3039.106622214619</v>
+        <v>3039.106622214622</v>
       </c>
       <c r="X44" t="n">
-        <v>2713.304113162857</v>
+        <v>2713.30411316286</v>
       </c>
       <c r="Y44" t="n">
-        <v>2370.828030396363</v>
+        <v>2370.828030396366</v>
       </c>
     </row>
     <row r="45">
@@ -7722,10 +7722,10 @@
         <v>91.53819062674259</v>
       </c>
       <c r="I45" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J45" t="n">
-        <v>174.249776666519</v>
+        <v>174.2497766665191</v>
       </c>
       <c r="K45" t="n">
         <v>411.6223991215309</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>772.7417171417395</v>
+        <v>772.7417171417393</v>
       </c>
       <c r="C46" t="n">
-        <v>651.4687834231505</v>
+        <v>651.4687834231503</v>
       </c>
       <c r="D46" t="n">
-        <v>549.0153932201326</v>
+        <v>549.0153932201324</v>
       </c>
       <c r="E46" t="n">
-        <v>448.7655488470574</v>
+        <v>448.7655488470572</v>
       </c>
       <c r="F46" t="n">
-        <v>349.5388505584649</v>
+        <v>349.5388505584647</v>
       </c>
       <c r="G46" t="n">
-        <v>229.4945402446356</v>
+        <v>229.4945402446353</v>
       </c>
       <c r="H46" t="n">
         <v>130.8986118162376</v>
       </c>
       <c r="I46" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J46" t="n">
-        <v>172.6042723289806</v>
+        <v>172.6042723289804</v>
       </c>
       <c r="K46" t="n">
-        <v>422.7684103924698</v>
+        <v>422.7684103924696</v>
       </c>
       <c r="L46" t="n">
-        <v>785.3547663901438</v>
+        <v>785.3547663901436</v>
       </c>
       <c r="M46" t="n">
-        <v>1175.500959512102</v>
+        <v>1175.500959512101</v>
       </c>
       <c r="N46" t="n">
         <v>1562.91573695857</v>
@@ -7849,7 +7849,7 @@
         <v>1079.856262696874</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.7269327626614</v>
+        <v>906.7269327626611</v>
       </c>
     </row>
   </sheetData>
@@ -8456,7 +8456,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>242.3646406817305</v>
       </c>
       <c r="M8" t="n">
         <v>237.2222789689842</v>
@@ -8465,10 +8465,10 @@
         <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
-        <v>236.9742571633982</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>237.8312214670128</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8535,22 @@
         <v>144.7174847160704</v>
       </c>
       <c r="L9" t="n">
-        <v>145.4304255215856</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>148.7322596337616</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>137.9399377950766</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>140.8504531560417</v>
       </c>
       <c r="Q9" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>65.21962625019125</v>
+        <v>106.1085586285967</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>4.632737432917907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>134.4883921284004</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>287.1904851278114</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8.669641067182324</v>
+        <v>9.158821514781765</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4891804475996651</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9179,10 +9179,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>287.1904851278114</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>49.99194229488168</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.158821514781808</v>
+        <v>9.158821514781765</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>287.1904851278114</v>
+        <v>287.1904851278101</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.158821514781808</v>
+        <v>9.15882151478178</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>177.7067676162324</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>287.1904851278114</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>8.669641067182324</v>
+        <v>9.15882151478178</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4891804475996651</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,19 +9881,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>62.15855137573192</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>177.7067676162344</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>8.669641067182324</v>
+        <v>9.158821514781822</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.4891804475996651</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>118.7052945249698</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>287.1904851278114</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8.669641067182324</v>
+        <v>8.669641067182297</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>49.99194229488285</v>
+        <v>287.1904851278117</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>8.669641067182297</v>
+        <v>9.158821514781808</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4891804475996651</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>8.669641067182324</v>
+        <v>9.158821514781808</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.4891804475996651</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>287.1904851278125</v>
       </c>
       <c r="Q38" t="n">
-        <v>177.7067676162331</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>8.66964106718231</v>
+        <v>9.158821514781822</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.4891804475996651</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,16 +11069,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>118.7052945249704</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>287.1904851278105</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>8.669641067182297</v>
+        <v>9.158821514781794</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.4891804475996651</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>134.4883921284022</v>
       </c>
       <c r="K44" t="n">
-        <v>287.1904851278103</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>8.669641067182297</v>
+        <v>8.669641067182324</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.0568805807625</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>295.9919197866239</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.78749010800658</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>112.2676046942298</v>
+        <v>112.2676046942299</v>
       </c>
       <c r="T11" t="n">
-        <v>12.01689285827881</v>
+        <v>204.5096108339154</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0059843530867</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>122.6099022245337</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.4021394263915</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.2940338131473</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.17560498787296</v>
+        <v>98.175604987873</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>91.65811123200641</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.8079869882842</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2151450700229</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>11.59459141173937</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9321492551762</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.66326461726909</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9960058470398</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>374.839161249352</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>49.34253595876925</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.49303052510928</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.8505094883267</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>15.30228948442982</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2120932420976</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1125863.130228603</v>
+        <v>1125863.130228602</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61445.72540377788</v>
+        <v>61445.72540377789</v>
       </c>
       <c r="C2" t="n">
         <v>61445.72540377788</v>
@@ -26320,40 +26320,40 @@
         <v>61527.82538993391</v>
       </c>
       <c r="E2" t="n">
-        <v>50015.21076979803</v>
+        <v>50015.21076979797</v>
       </c>
       <c r="F2" t="n">
         <v>55358.72191879828</v>
       </c>
       <c r="G2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="H2" t="n">
-        <v>61578.13273982133</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="I2" t="n">
         <v>61578.13273982133</v>
       </c>
       <c r="J2" t="n">
+        <v>61578.13273982127</v>
+      </c>
+      <c r="K2" t="n">
         <v>61578.13273982126</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>61578.13273982127</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>61578.13273982133</v>
+      </c>
+      <c r="N2" t="n">
         <v>61578.13273982126</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>61578.13273982133</v>
+      </c>
+      <c r="P2" t="n">
         <v>61578.13273982126</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61578.13273982133</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982126</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61578.13273982135</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>2135.906088747824</v>
       </c>
       <c r="E3" t="n">
-        <v>1082403.580944329</v>
+        <v>1082403.580944328</v>
       </c>
       <c r="F3" t="n">
-        <v>88556.39574538922</v>
+        <v>88556.39574538983</v>
       </c>
       <c r="G3" t="n">
-        <v>37749.29337377974</v>
+        <v>37749.29337377979</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>8.876817288835104e-11</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>39489.5586665952</v>
+        <v>39489.5586665953</v>
       </c>
       <c r="M3" t="n">
-        <v>195208.004723627</v>
+        <v>195208.0047236268</v>
       </c>
       <c r="N3" t="n">
-        <v>54734.99832329926</v>
+        <v>54734.9983232994</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>409397.0283363865</v>
       </c>
       <c r="D4" t="n">
-        <v>408996.6277656587</v>
+        <v>408996.6277656588</v>
       </c>
       <c r="E4" t="n">
-        <v>9456.009910147761</v>
+        <v>9456.009910147794</v>
       </c>
       <c r="F4" t="n">
-        <v>25678.05866899655</v>
+        <v>25678.05866899649</v>
       </c>
       <c r="G4" t="n">
+        <v>73125.68471511378</v>
+      </c>
+      <c r="H4" t="n">
         <v>73125.68471511376</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>73125.68471511378</v>
       </c>
-      <c r="I4" t="n">
-        <v>73125.68471511376</v>
-      </c>
       <c r="J4" t="n">
+        <v>73125.68471511381</v>
+      </c>
+      <c r="K4" t="n">
         <v>73125.68471511378</v>
       </c>
-      <c r="K4" t="n">
-        <v>73125.68471511376</v>
-      </c>
       <c r="L4" t="n">
-        <v>73125.68471511378</v>
+        <v>73125.68471511373</v>
       </c>
       <c r="M4" t="n">
         <v>73125.68471511378</v>
       </c>
       <c r="N4" t="n">
+        <v>73125.68471511381</v>
+      </c>
+      <c r="O4" t="n">
+        <v>73125.68471511379</v>
+      </c>
+      <c r="P4" t="n">
         <v>73125.68471511378</v>
-      </c>
-      <c r="O4" t="n">
-        <v>73125.68471511378</v>
-      </c>
-      <c r="P4" t="n">
-        <v>73125.68471511376</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>71068.51293280724</v>
+        <v>71068.51293280718</v>
       </c>
       <c r="F5" t="n">
-        <v>85332.16408926278</v>
+        <v>85332.16408926275</v>
       </c>
       <c r="G5" t="n">
-        <v>89299.09577006314</v>
+        <v>89299.09577006311</v>
       </c>
       <c r="H5" t="n">
-        <v>89299.09577006314</v>
+        <v>89299.09577006313</v>
       </c>
       <c r="I5" t="n">
-        <v>89299.09577006314</v>
+        <v>89299.09577006313</v>
       </c>
       <c r="J5" t="n">
         <v>89299.09577006314</v>
       </c>
       <c r="K5" t="n">
+        <v>89299.09577006313</v>
+      </c>
+      <c r="L5" t="n">
         <v>89299.09577006314</v>
-      </c>
-      <c r="L5" t="n">
-        <v>89299.09577006313</v>
       </c>
       <c r="M5" t="n">
         <v>89299.09577006314</v>
@@ -26506,10 +26506,10 @@
         <v>89299.09577006314</v>
       </c>
       <c r="O5" t="n">
-        <v>89299.09577006313</v>
+        <v>89299.09577006314</v>
       </c>
       <c r="P5" t="n">
-        <v>89299.09577006313</v>
+        <v>89299.09577006314</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-381578.9029326086</v>
+        <v>-381583.3165104768</v>
       </c>
       <c r="C6" t="n">
-        <v>-381578.9029326086</v>
+        <v>-381583.3165104768</v>
       </c>
       <c r="D6" t="n">
-        <v>-383650.3720455687</v>
+        <v>-383652.0489572316</v>
       </c>
       <c r="E6" t="n">
-        <v>-1112912.893017486</v>
+        <v>-1113298.323749819</v>
       </c>
       <c r="F6" t="n">
-        <v>-144207.8965848503</v>
+        <v>-144415.2102788849</v>
       </c>
       <c r="G6" t="n">
         <v>-138595.9411191354</v>
@@ -26543,25 +26543,25 @@
         <v>-100846.6477453556</v>
       </c>
       <c r="J6" t="n">
-        <v>-100846.6477453557</v>
+        <v>-100846.6477453558</v>
       </c>
       <c r="K6" t="n">
         <v>-100846.6477453556</v>
       </c>
       <c r="L6" t="n">
-        <v>-140336.2064119508</v>
+        <v>-140336.2064119509</v>
       </c>
       <c r="M6" t="n">
-        <v>-296054.6524689827</v>
+        <v>-296054.6524689824</v>
       </c>
       <c r="N6" t="n">
-        <v>-155581.6460686548</v>
+        <v>-155581.6460686551</v>
       </c>
       <c r="O6" t="n">
         <v>-100846.6477453556</v>
       </c>
       <c r="P6" t="n">
-        <v>-100846.6477453555</v>
+        <v>-100846.6477453557</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="H2" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="I2" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="J2" t="n">
         <v>47.18661671722467</v>
       </c>
       <c r="K2" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="L2" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="M2" t="n">
         <v>47.18661671722468</v>
       </c>
       <c r="N2" t="n">
+        <v>47.18661671722468</v>
+      </c>
+      <c r="O2" t="n">
+        <v>47.18661671722472</v>
+      </c>
+      <c r="P2" t="n">
         <v>47.18661671722469</v>
-      </c>
-      <c r="O2" t="n">
-        <v>47.1866167172247</v>
-      </c>
-      <c r="P2" t="n">
-        <v>47.1866167172247</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1056.156912425183</v>
+        <v>1056.156912425182</v>
       </c>
       <c r="F3" t="n">
         <v>1087.183829664779</v>
@@ -26796,7 +26796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>790.2021750318793</v>
+        <v>790.2021750318786</v>
       </c>
       <c r="F4" t="n">
         <v>1013.676917805437</v>
@@ -26811,19 +26811,19 @@
         <v>1013.676917805437</v>
       </c>
       <c r="J4" t="n">
-        <v>1013.676917805437</v>
+        <v>1013.676917805438</v>
       </c>
       <c r="K4" t="n">
         <v>1013.676917805437</v>
       </c>
       <c r="L4" t="n">
-        <v>1013.676917805437</v>
+        <v>1013.676917805438</v>
       </c>
       <c r="M4" t="n">
         <v>1013.676917805437</v>
       </c>
       <c r="N4" t="n">
-        <v>1013.676917805437</v>
+        <v>1013.676917805438</v>
       </c>
       <c r="O4" t="n">
         <v>1013.676917805437</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722466</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1056.156912425183</v>
+        <v>1056.156912425182</v>
       </c>
       <c r="F3" t="n">
-        <v>31.02691723959629</v>
+        <v>31.02691723959697</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>783.3261292901678</v>
+        <v>783.3261292901672</v>
       </c>
       <c r="F4" t="n">
-        <v>223.4747427735582</v>
+        <v>223.4747427735584</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711209</v>
+        <v>6.876045741711778</v>
       </c>
       <c r="M4" t="n">
-        <v>783.3261292901681</v>
+        <v>783.326129290167</v>
       </c>
       <c r="N4" t="n">
-        <v>223.4747427735581</v>
+        <v>223.4747427735587</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>783.3261292901678</v>
+        <v>783.3261292901672</v>
       </c>
       <c r="N4" t="n">
-        <v>223.4747427735582</v>
+        <v>223.4747427735584</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>333.4183810264677</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>5.892868265313084</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>165.8324532466043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27980,7 +27980,7 @@
         <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>164.8071253621264</v>
       </c>
       <c r="T9" t="n">
         <v>194.85489893178</v>
@@ -28032,10 +28032,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>86.48313437496134</v>
+        <v>90.02419976247985</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>15.39344608417142</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>79.28599750998295</v>
       </c>
       <c r="R10" t="n">
-        <v>170.417345635458</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>224.6106090740886</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.2615975821166</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="C17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="D17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="E17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="F17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="G17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="H17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="I17" t="n">
         <v>41.97878567833999</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="T17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="U17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="V17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="W17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="X17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="C19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="D19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="E19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="F19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="G19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="H19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="I19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="J19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="K19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="L19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="M19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="N19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="O19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="P19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="R19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="S19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="T19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="U19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="V19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="W19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="X19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722474</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="C20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="D20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="E20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="F20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="G20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="H20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="I20" t="n">
         <v>41.97878567833999</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="T20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="U20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="V20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="W20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="X20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="C22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="D22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="E22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="F22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="G22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="H22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="I22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="J22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="K22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="L22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="M22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="N22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="O22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="P22" t="n">
-        <v>47.18661671722481</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="R22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="S22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="T22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="U22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="V22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="W22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="X22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722471</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="C23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="D23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="E23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="F23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="G23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="H23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="I23" t="n">
         <v>41.97878567833999</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="T23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="U23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="V23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="W23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="X23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="C25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="D25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="E25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="F25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="G25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="H25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="I25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="J25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="K25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="L25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="M25" t="n">
-        <v>47.18661671722475</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="N25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="O25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="P25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722479</v>
       </c>
       <c r="R25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="S25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="T25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="U25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="V25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="W25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="X25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.1866167172247</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="C29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="D29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="E29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="F29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="G29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="H29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="I29" t="n">
         <v>41.97878567833999</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="T29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="U29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="V29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="W29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="X29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="C31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="D31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="E31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="F31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="G31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="H31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="I31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="J31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="K31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="L31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="M31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="N31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="O31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="P31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="R31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="S31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="T31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="U31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="V31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="W31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="X31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="C32" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="D32" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="E32" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="F32" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="G32" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="H32" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="I32" t="n">
         <v>41.97878567833999</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="T32" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="U32" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="V32" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="W32" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="X32" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="C34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="D34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="E34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="F34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="G34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="H34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="I34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="J34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="K34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="L34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="M34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="N34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="O34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="P34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="R34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="S34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="T34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="U34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="V34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="W34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="X34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.18661671722471</v>
+        <v>47.18661671722464</v>
       </c>
     </row>
     <row r="35">
@@ -30186,7 +30186,7 @@
         <v>47.18661671722468</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722479</v>
       </c>
       <c r="R37" t="n">
         <v>47.18661671722468</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="C38" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="D38" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="E38" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="F38" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="G38" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="H38" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="I38" t="n">
         <v>41.97878567833999</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="T38" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="U38" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="V38" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="W38" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="X38" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="C40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="D40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="E40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="F40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="G40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="H40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="I40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="J40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="K40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="L40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="M40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="N40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="O40" t="n">
-        <v>47.18661671722452</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="P40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="R40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="S40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="T40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="U40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="V40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="W40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="X40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.18661671722469</v>
+        <v>47.18661671722468</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="C41" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="D41" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="E41" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="F41" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="G41" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="H41" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="I41" t="n">
         <v>41.97878567833999</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="T41" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="U41" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="V41" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="W41" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="X41" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="C43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="D43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="E43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="F43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="G43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="H43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="J43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="K43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="L43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="M43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="N43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="O43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="P43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722434</v>
       </c>
       <c r="R43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="S43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="T43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="U43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="V43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="W43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="X43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722472</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="C44" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="D44" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="E44" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="F44" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="G44" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="H44" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="I44" t="n">
         <v>41.97878567833999</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="T44" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="U44" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="V44" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="W44" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="X44" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="C46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="D46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="E46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="F46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="G46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="H46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="I46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="J46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="K46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="L46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="M46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="N46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="O46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="P46" t="n">
-        <v>47.18661671722458</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="R46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="S46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="T46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="U46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="V46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="W46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="X46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.1866167172247</v>
+        <v>47.18661671722469</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.24585693437259</v>
+        <v>4.245856934372587</v>
       </c>
       <c r="H11" t="n">
-        <v>43.4828823291433</v>
+        <v>43.48288232914327</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6883994623994</v>
+        <v>163.6883994623993</v>
       </c>
       <c r="J11" t="n">
-        <v>360.361799983706</v>
+        <v>360.3617999837057</v>
       </c>
       <c r="K11" t="n">
-        <v>540.0889240156978</v>
+        <v>540.0889240156974</v>
       </c>
       <c r="L11" t="n">
-        <v>670.028068171003</v>
+        <v>670.0280681710026</v>
       </c>
       <c r="M11" t="n">
-        <v>745.5353264276516</v>
+        <v>745.5353264276511</v>
       </c>
       <c r="N11" t="n">
-        <v>757.5988674424377</v>
+        <v>757.5988674424373</v>
       </c>
       <c r="O11" t="n">
-        <v>715.3791275512702</v>
+        <v>715.3791275512698</v>
       </c>
       <c r="P11" t="n">
-        <v>610.5595344839469</v>
+        <v>610.5595344839464</v>
       </c>
       <c r="Q11" t="n">
-        <v>458.5047830217283</v>
+        <v>458.504783021728</v>
       </c>
       <c r="R11" t="n">
-        <v>266.7088106537825</v>
+        <v>266.7088106537823</v>
       </c>
       <c r="S11" t="n">
-        <v>96.7524648920155</v>
+        <v>96.75246489201542</v>
       </c>
       <c r="T11" t="n">
-        <v>18.58623873021602</v>
+        <v>18.58623873021601</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3396685547498071</v>
+        <v>0.3396685547498069</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.271733736159827</v>
+        <v>2.271733736159825</v>
       </c>
       <c r="H12" t="n">
-        <v>21.94016529396465</v>
+        <v>21.94016529396463</v>
       </c>
       <c r="I12" t="n">
-        <v>78.21539398620457</v>
+        <v>78.21539398620452</v>
       </c>
       <c r="J12" t="n">
-        <v>214.6290193448195</v>
+        <v>214.6290193448193</v>
       </c>
       <c r="K12" t="n">
-        <v>366.8351796675278</v>
+        <v>366.8351796675276</v>
       </c>
       <c r="L12" t="n">
-        <v>493.2551693359308</v>
+        <v>493.2551693359305</v>
       </c>
       <c r="M12" t="n">
-        <v>575.6055172717245</v>
+        <v>575.605517271724</v>
       </c>
       <c r="N12" t="n">
-        <v>590.840082546235</v>
+        <v>590.8400825462346</v>
       </c>
       <c r="O12" t="n">
-        <v>540.5032455502725</v>
+        <v>540.503245550272</v>
       </c>
       <c r="P12" t="n">
-        <v>433.8015061619585</v>
+        <v>433.8015061619582</v>
       </c>
       <c r="Q12" t="n">
-        <v>289.9848186719105</v>
+        <v>289.9848186719104</v>
       </c>
       <c r="R12" t="n">
-        <v>141.0467665310461</v>
+        <v>141.046766531046</v>
       </c>
       <c r="S12" t="n">
-        <v>42.19645777472307</v>
+        <v>42.19645777472304</v>
       </c>
       <c r="T12" t="n">
-        <v>9.156681155837193</v>
+        <v>9.156681155837187</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1494561668526202</v>
+        <v>0.1494561668526201</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.904545251914263</v>
+        <v>1.904545251914262</v>
       </c>
       <c r="H13" t="n">
-        <v>16.93313869429228</v>
+        <v>16.93313869429227</v>
       </c>
       <c r="I13" t="n">
-        <v>57.27486993938532</v>
+        <v>57.27486993938528</v>
       </c>
       <c r="J13" t="n">
-        <v>134.6513493103384</v>
+        <v>134.6513493103383</v>
       </c>
       <c r="K13" t="n">
-        <v>221.273530176948</v>
+        <v>221.2735301769479</v>
       </c>
       <c r="L13" t="n">
-        <v>283.153936816417</v>
+        <v>283.1539368164168</v>
       </c>
       <c r="M13" t="n">
-        <v>298.5461252614331</v>
+        <v>298.5461252614329</v>
       </c>
       <c r="N13" t="n">
-        <v>291.4473656861165</v>
+        <v>291.4473656861163</v>
       </c>
       <c r="O13" t="n">
-        <v>269.1988143342089</v>
+        <v>269.1988143342087</v>
       </c>
       <c r="P13" t="n">
-        <v>230.3460911951577</v>
+        <v>230.3460911951576</v>
       </c>
       <c r="Q13" t="n">
-        <v>159.4796937762026</v>
+        <v>159.4796937762025</v>
       </c>
       <c r="R13" t="n">
-        <v>85.63528014516314</v>
+        <v>85.63528014516308</v>
       </c>
       <c r="S13" t="n">
-        <v>33.1910295265422</v>
+        <v>33.19102952654217</v>
       </c>
       <c r="T13" t="n">
-        <v>8.137602439997305</v>
+        <v>8.1376024399973</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1038842864680509</v>
+        <v>0.1038842864680508</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M8" t="n">
         <v>6.876045741711437</v>
@@ -35185,10 +35185,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="P8" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="O9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M9" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>179.3158954570197</v>
+        <v>179.3158954570194</v>
       </c>
       <c r="K11" t="n">
-        <v>319.9990729707172</v>
+        <v>319.9990729707169</v>
       </c>
       <c r="L11" t="n">
-        <v>434.2616532010158</v>
+        <v>434.2616532010153</v>
       </c>
       <c r="M11" t="n">
-        <v>515.1890932003789</v>
+        <v>515.1890932003784</v>
       </c>
       <c r="N11" t="n">
-        <v>528.1858038458467</v>
+        <v>528.1858038458463</v>
       </c>
       <c r="O11" t="n">
-        <v>485.2809161295835</v>
+        <v>485.280916129583</v>
       </c>
       <c r="P11" t="n">
-        <v>379.3265387286773</v>
+        <v>379.3265387286769</v>
       </c>
       <c r="Q11" t="n">
-        <v>236.1990931472788</v>
+        <v>236.1990931472785</v>
       </c>
       <c r="R11" t="n">
-        <v>51.12327283965033</v>
+        <v>51.12327283965016</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>153.011018928344</v>
+        <v>193.8999513067493</v>
       </c>
       <c r="K12" t="n">
-        <v>228.9937406931688</v>
+        <v>228.9937406931686</v>
       </c>
       <c r="L12" t="n">
-        <v>354.7007895560566</v>
+        <v>354.7007895560563</v>
       </c>
       <c r="M12" t="n">
-        <v>433.4714833497061</v>
+        <v>433.4714833497057</v>
       </c>
       <c r="N12" t="n">
-        <v>459.4983704629017</v>
+        <v>459.4983704629013</v>
       </c>
       <c r="O12" t="n">
-        <v>397.907001105828</v>
+        <v>397.9070011058276</v>
       </c>
       <c r="P12" t="n">
-        <v>299.8270987476283</v>
+        <v>299.827098747628</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.003044585889</v>
+        <v>150.0030445858889</v>
       </c>
       <c r="R12" t="n">
-        <v>40.888932378403</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.29216919366564</v>
+        <v>41.29216919366556</v>
       </c>
       <c r="K13" t="n">
-        <v>199.0040383510652</v>
+        <v>199.004038351065</v>
       </c>
       <c r="L13" t="n">
-        <v>310.7439620767332</v>
+        <v>310.7439620767329</v>
       </c>
       <c r="M13" t="n">
-        <v>338.1300022232737</v>
+        <v>338.1300022232735</v>
       </c>
       <c r="N13" t="n">
-        <v>335.5795380653451</v>
+        <v>335.5795380653449</v>
       </c>
       <c r="O13" t="n">
-        <v>293.7839422482486</v>
+        <v>293.7839422482484</v>
       </c>
       <c r="P13" t="n">
-        <v>227.6246504600512</v>
+        <v>227.6246504600511</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.31765052450818</v>
+        <v>73.31765052450807</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>358.9989259740751</v>
+        <v>324.3907029304017</v>
       </c>
       <c r="K14" t="n">
         <v>335.8653653277676</v>
@@ -35662,7 +35662,7 @@
         <v>506.296741263465</v>
       </c>
       <c r="P14" t="n">
-        <v>684.4535443899581</v>
+        <v>719.0617674336293</v>
       </c>
       <c r="Q14" t="n">
         <v>461.9836637430929</v>
@@ -35890,7 +35890,7 @@
         <v>453.9451918634786</v>
       </c>
       <c r="M17" t="n">
-        <v>537.0908225742372</v>
+        <v>986.6043560670697</v>
       </c>
       <c r="N17" t="n">
         <v>550.4419260985273</v>
@@ -35899,10 +35899,10 @@
         <v>506.296741263465</v>
       </c>
       <c r="P17" t="n">
-        <v>684.4535443899581</v>
+        <v>397.2630592621467</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.9836637430929</v>
+        <v>299.6606153780699</v>
       </c>
       <c r="R17" t="n">
         <v>124.6748468434942</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.43446353994506</v>
+        <v>92.43446353994513</v>
       </c>
       <c r="K19" t="n">
-        <v>252.691048548979</v>
+        <v>252.6910485489791</v>
       </c>
       <c r="L19" t="n">
-        <v>366.2488444420948</v>
+        <v>366.2488444420949</v>
       </c>
       <c r="M19" t="n">
-        <v>394.0870637595534</v>
+        <v>394.0870637595535</v>
       </c>
       <c r="N19" t="n">
         <v>391.3280580267358</v>
       </c>
       <c r="O19" t="n">
-        <v>348.8788623956575</v>
+        <v>348.8788623956576</v>
       </c>
       <c r="P19" t="n">
-        <v>281.578186963433</v>
+        <v>281.5781869634332</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.1893317449119</v>
+        <v>125.189331744912</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>506.296741263465</v>
       </c>
       <c r="P20" t="n">
-        <v>684.4535443899581</v>
+        <v>684.4535443899567</v>
       </c>
       <c r="Q20" t="n">
         <v>461.9836637430929</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.43446353994506</v>
+        <v>92.4344635399451</v>
       </c>
       <c r="K22" t="n">
         <v>252.691048548979</v>
       </c>
       <c r="L22" t="n">
-        <v>366.2488444420948</v>
+        <v>366.2488444420949</v>
       </c>
       <c r="M22" t="n">
         <v>394.0870637595534</v>
@@ -36291,10 +36291,10 @@
         <v>391.3280580267358</v>
       </c>
       <c r="O22" t="n">
-        <v>348.8788623956575</v>
+        <v>348.8788623956576</v>
       </c>
       <c r="P22" t="n">
-        <v>281.5781869634332</v>
+        <v>281.5781869634331</v>
       </c>
       <c r="Q22" t="n">
         <v>125.1893317449119</v>
@@ -36358,7 +36358,7 @@
         <v>358.9989259740751</v>
       </c>
       <c r="K23" t="n">
-        <v>335.8653653277676</v>
+        <v>513.572132944</v>
       </c>
       <c r="L23" t="n">
         <v>453.9451918634786</v>
@@ -36373,10 +36373,10 @@
         <v>506.296741263465</v>
       </c>
       <c r="P23" t="n">
-        <v>684.4535443899581</v>
+        <v>719.0617674336293</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.9836637430929</v>
+        <v>249.6686730831882</v>
       </c>
       <c r="R23" t="n">
         <v>124.6748468434942</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.43446353994506</v>
+        <v>92.43446353994509</v>
       </c>
       <c r="K25" t="n">
         <v>252.691048548979</v>
       </c>
       <c r="L25" t="n">
-        <v>366.2488444420948</v>
+        <v>366.2488444420949</v>
       </c>
       <c r="M25" t="n">
-        <v>394.0870637595535</v>
+        <v>394.0870637595534</v>
       </c>
       <c r="N25" t="n">
         <v>391.3280580267358</v>
       </c>
       <c r="O25" t="n">
-        <v>348.8788623956575</v>
+        <v>348.8788623956576</v>
       </c>
       <c r="P25" t="n">
-        <v>281.578186963433</v>
+        <v>281.5781869634331</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.1893317449119</v>
+        <v>125.189331744912</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,19 +36601,19 @@
         <v>453.9451918634786</v>
       </c>
       <c r="M26" t="n">
-        <v>599.2493739499691</v>
+        <v>537.0908225742372</v>
       </c>
       <c r="N26" t="n">
-        <v>987.7888505105115</v>
+        <v>550.4419260985273</v>
       </c>
       <c r="O26" t="n">
         <v>506.296741263465</v>
       </c>
       <c r="P26" t="n">
-        <v>397.2630592621467</v>
+        <v>719.0617674336293</v>
       </c>
       <c r="Q26" t="n">
-        <v>249.6686730831882</v>
+        <v>427.3754406994227</v>
       </c>
       <c r="R26" t="n">
         <v>124.6748468434942</v>
@@ -36768,7 +36768,7 @@
         <v>348.8788623956575</v>
       </c>
       <c r="P28" t="n">
-        <v>281.578186963433</v>
+        <v>281.5781869634331</v>
       </c>
       <c r="Q28" t="n">
         <v>125.1893317449119</v>
@@ -36832,7 +36832,7 @@
         <v>358.9989259740751</v>
       </c>
       <c r="K29" t="n">
-        <v>335.8653653277676</v>
+        <v>454.5706598527374</v>
       </c>
       <c r="L29" t="n">
         <v>453.9451918634786</v>
@@ -36844,13 +36844,13 @@
         <v>550.4419260985273</v>
       </c>
       <c r="O29" t="n">
-        <v>506.296741263465</v>
+        <v>887.0969225262104</v>
       </c>
       <c r="P29" t="n">
-        <v>684.4535443899581</v>
+        <v>397.2630592621467</v>
       </c>
       <c r="Q29" t="n">
-        <v>461.9836637430929</v>
+        <v>249.6686730831882</v>
       </c>
       <c r="R29" t="n">
         <v>124.6748468434942</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.43446353994506</v>
+        <v>92.43446353994511</v>
       </c>
       <c r="K31" t="n">
-        <v>252.691048548979</v>
+        <v>252.6910485489791</v>
       </c>
       <c r="L31" t="n">
-        <v>366.2488444420948</v>
+        <v>366.2488444420949</v>
       </c>
       <c r="M31" t="n">
         <v>394.0870637595534</v>
@@ -37002,10 +37002,10 @@
         <v>391.3280580267358</v>
       </c>
       <c r="O31" t="n">
-        <v>348.8788623956575</v>
+        <v>348.8788623956576</v>
       </c>
       <c r="P31" t="n">
-        <v>281.578186963433</v>
+        <v>281.5781869634331</v>
       </c>
       <c r="Q31" t="n">
         <v>125.1893317449119</v>
@@ -37069,13 +37069,13 @@
         <v>358.9989259740751</v>
       </c>
       <c r="K32" t="n">
-        <v>385.8573076226505</v>
+        <v>623.0558504555793</v>
       </c>
       <c r="L32" t="n">
         <v>453.9451918634786</v>
       </c>
       <c r="M32" t="n">
-        <v>986.6043560670697</v>
+        <v>537.0908225742372</v>
       </c>
       <c r="N32" t="n">
         <v>550.4419260985273</v>
@@ -37087,7 +37087,7 @@
         <v>397.2630592621467</v>
       </c>
       <c r="Q32" t="n">
-        <v>249.6686730831882</v>
+        <v>461.9836637430929</v>
       </c>
       <c r="R32" t="n">
         <v>124.6748468434942</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.4344635399451</v>
+        <v>92.43446353994503</v>
       </c>
       <c r="K34" t="n">
         <v>252.691048548979</v>
@@ -37239,10 +37239,10 @@
         <v>391.3280580267358</v>
       </c>
       <c r="O34" t="n">
-        <v>348.8788623956576</v>
+        <v>348.8788623956575</v>
       </c>
       <c r="P34" t="n">
-        <v>281.5781869634331</v>
+        <v>281.578186963433</v>
       </c>
       <c r="Q34" t="n">
         <v>125.1893317449119</v>
@@ -37482,7 +37482,7 @@
         <v>281.5781869634331</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.1893317449119</v>
+        <v>125.189331744912</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,10 +37558,10 @@
         <v>506.296741263465</v>
       </c>
       <c r="P38" t="n">
-        <v>719.0617674336293</v>
+        <v>684.4535443899591</v>
       </c>
       <c r="Q38" t="n">
-        <v>427.3754406994213</v>
+        <v>461.9836637430929</v>
       </c>
       <c r="R38" t="n">
         <v>124.6748468434942</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.43446353994509</v>
+        <v>92.43446353994507</v>
       </c>
       <c r="K40" t="n">
         <v>252.691048548979</v>
       </c>
       <c r="L40" t="n">
-        <v>366.2488444420949</v>
+        <v>366.2488444420948</v>
       </c>
       <c r="M40" t="n">
         <v>394.0870637595534</v>
@@ -37713,7 +37713,7 @@
         <v>391.3280580267358</v>
       </c>
       <c r="O40" t="n">
-        <v>348.8788623956574</v>
+        <v>348.8788623956576</v>
       </c>
       <c r="P40" t="n">
         <v>281.5781869634331</v>
@@ -37789,16 +37789,16 @@
         <v>537.0908225742372</v>
       </c>
       <c r="N41" t="n">
-        <v>550.4419260985273</v>
+        <v>669.1472206234978</v>
       </c>
       <c r="O41" t="n">
-        <v>506.296741263465</v>
+        <v>887.0969225262104</v>
       </c>
       <c r="P41" t="n">
-        <v>684.4535443899572</v>
+        <v>397.2630592621467</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.9836637430929</v>
+        <v>249.6686730831882</v>
       </c>
       <c r="R41" t="n">
         <v>124.6748468434942</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.43446353994509</v>
+        <v>92.43446353994511</v>
       </c>
       <c r="K43" t="n">
-        <v>252.691048548979</v>
+        <v>252.6910485489791</v>
       </c>
       <c r="L43" t="n">
         <v>366.2488444420949</v>
@@ -37956,7 +37956,7 @@
         <v>281.5781869634331</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.1893317449119</v>
+        <v>125.1893317449116</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>358.9989259740751</v>
+        <v>324.3907029304035</v>
       </c>
       <c r="K44" t="n">
-        <v>623.0558504555779</v>
+        <v>335.8653653277676</v>
       </c>
       <c r="L44" t="n">
         <v>453.9451918634786</v>
@@ -38032,7 +38032,7 @@
         <v>506.296741263465</v>
       </c>
       <c r="P44" t="n">
-        <v>397.2630592621467</v>
+        <v>719.0617674336293</v>
       </c>
       <c r="Q44" t="n">
         <v>461.9836637430929</v>
@@ -38190,7 +38190,7 @@
         <v>348.8788623956576</v>
       </c>
       <c r="P46" t="n">
-        <v>281.578186963433</v>
+        <v>281.5781869634331</v>
       </c>
       <c r="Q46" t="n">
         <v>125.1893317449119</v>
